--- a/tables/tech_innov_totals.xlsx
+++ b/tables/tech_innov_totals.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Relevant Documents" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="% Relevant of Technology" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="% Relevant of Technology rated" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any Rating Totals" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="% Stage" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Any Rating Totals" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,15 +18,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
   <si>
-    <t>Technology</t>
+    <t>PY</t>
   </si>
   <si>
     <t>RD</t>
-  </si>
-  <si>
-    <t>Demos</t>
   </si>
   <si>
     <t>Scaleup</t>
@@ -34,19 +32,16 @@
     <t>Demandpull</t>
   </si>
   <si>
+    <t>Publicaccept</t>
+  </si>
+  <si>
+    <t>Demos</t>
+  </si>
+  <si>
     <t>Nichemarkets</t>
   </si>
   <si>
-    <t>Publicaccept</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>distinct_Total</t>
-  </si>
-  <si>
-    <t>distinct_anyrating_Total</t>
+    <t>Technology</t>
   </si>
   <si>
     <t>distinct_alltech_Total</t>
@@ -80,6 +75,15 @@
   </si>
   <si>
     <t>Synonyms</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>distinct_Total</t>
+  </si>
+  <si>
+    <t>distinct_anyrating_Total</t>
   </si>
 </sst>
 </file>
@@ -428,7 +432,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +440,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:7">
       <c r="A1" t="s" s="1">
         <v>0</v>
       </c>
@@ -458,430 +462,627 @@
       <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
-      <c r="H1" t="s" s="1">
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="n" s="1">
+        <v>1991</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="n" s="1">
+        <v>1992</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="n" s="1">
+        <v>1993</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0</v>
+      </c>
+      <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="n" s="1">
+        <v>1994</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="n" s="1">
+        <v>1995</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="n" s="1">
+        <v>1996</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="n" s="1">
+        <v>1997</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="n" s="1">
+        <v>1998</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="n" s="1">
+        <v>1999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="n" s="1">
+        <v>2000</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="n" s="1">
+        <v>2001</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="n" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14" t="n" s="1">
+        <v>2003</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15" t="n" s="1">
+        <v>2004</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16" t="n" s="1">
+        <v>2005</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" t="n" s="1">
+        <v>2006</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" t="n" s="1">
+        <v>2007</v>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" t="n" s="1">
+        <v>2008</v>
+      </c>
+      <c r="B19" t="n">
+        <v>2</v>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>2</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" t="n" s="1">
+        <v>2009</v>
+      </c>
+      <c r="B20" t="n">
+        <v>4</v>
+      </c>
+      <c r="C20" t="n">
+        <v>2</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" t="n" s="1">
+        <v>2010</v>
+      </c>
+      <c r="B21" t="n">
+        <v>1</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" t="n" s="1">
+        <v>2011</v>
+      </c>
+      <c r="B22" t="n">
+        <v>8</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
+      <c r="A23" t="n" s="1">
+        <v>2012</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11</v>
+      </c>
+      <c r="C23" t="n">
+        <v>4</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1</v>
+      </c>
+      <c r="E23" t="n">
+        <v>2</v>
+      </c>
+      <c r="F23" t="n">
+        <v>1</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="n" s="1">
+        <v>2013</v>
+      </c>
+      <c r="B24" t="n">
+        <v>10</v>
+      </c>
+      <c r="C24" t="n">
+        <v>6</v>
+      </c>
+      <c r="D24" t="n">
+        <v>1</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
+        <v>0</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="n" s="1">
+        <v>2014</v>
+      </c>
+      <c r="B25" t="n">
         <v>7</v>
       </c>
-      <c r="I1" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="J1" t="s" s="1">
-        <v>9</v>
-      </c>
-      <c r="K1" t="s" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" t="s" s="1">
-        <v>11</v>
-      </c>
-      <c r="B2" t="n">
-        <v>142</v>
-      </c>
-      <c r="C2" t="n">
-        <v>9</v>
-      </c>
-      <c r="D2" t="n">
-        <v>63</v>
-      </c>
-      <c r="E2" t="n">
-        <v>25</v>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c r="C25" t="n">
+        <v>2</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
+        <v>0</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="n" s="1">
+        <v>2015</v>
+      </c>
+      <c r="B26" t="n">
         <v>7</v>
       </c>
-      <c r="H2" t="n">
-        <v>247</v>
-      </c>
-      <c r="I2" t="n">
-        <v>186</v>
-      </c>
-      <c r="J2" t="n">
-        <v>260</v>
-      </c>
-      <c r="K2" t="n">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" t="s" s="1">
+      <c r="C26" t="n">
+        <v>2</v>
+      </c>
+      <c r="D26" t="n">
+        <v>1</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" t="n" s="1">
+        <v>2016</v>
+      </c>
+      <c r="B27" t="n">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
-        <v>46</v>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>34</v>
-      </c>
-      <c r="E3" t="n">
-        <v>27</v>
-      </c>
-      <c r="F3" t="n">
+      <c r="C27" t="n">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
-        <v>8</v>
-      </c>
-      <c r="H3" t="n">
-        <v>125</v>
-      </c>
-      <c r="I3" t="n">
-        <v>76</v>
-      </c>
-      <c r="J3" t="n">
-        <v>111</v>
-      </c>
-      <c r="K3" t="n">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" t="s" s="1">
-        <v>13</v>
-      </c>
-      <c r="B4" t="n">
-        <v>47</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
-        <v>15</v>
-      </c>
-      <c r="E4" t="n">
+      <c r="D27" t="n">
+        <v>1</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" t="n" s="1">
+        <v>2017</v>
+      </c>
+      <c r="B28" t="n">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
-        <v>5</v>
-      </c>
-      <c r="H4" t="n">
-        <v>73</v>
-      </c>
-      <c r="I4" t="n">
-        <v>55</v>
-      </c>
-      <c r="J4" t="n">
-        <v>71</v>
-      </c>
-      <c r="K4" t="n">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" t="s" s="1">
-        <v>14</v>
-      </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
-        <v>9</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" t="s" s="1">
-        <v>15</v>
-      </c>
-      <c r="B6" t="n">
-        <v>66</v>
-      </c>
-      <c r="C6" t="n">
-        <v>5</v>
-      </c>
-      <c r="D6" t="n">
-        <v>24</v>
-      </c>
-      <c r="E6" t="n">
-        <v>4</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>2</v>
-      </c>
-      <c r="H6" t="n">
-        <v>101</v>
-      </c>
-      <c r="I6" t="n">
-        <v>80</v>
-      </c>
-      <c r="J6" t="n">
-        <v>117</v>
-      </c>
-      <c r="K6" t="n">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="B7" t="n">
-        <v>12</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
-        <v>7</v>
-      </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>5</v>
-      </c>
-      <c r="H7" t="n">
-        <v>26</v>
-      </c>
-      <c r="I7" t="n">
-        <v>18</v>
-      </c>
-      <c r="J7" t="n">
-        <v>31</v>
-      </c>
-      <c r="K7" t="n">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="B8" t="n">
-        <v>4</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>5</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>2</v>
-      </c>
-      <c r="H8" t="n">
-        <v>13</v>
-      </c>
-      <c r="I8" t="n">
-        <v>9</v>
-      </c>
-      <c r="J8" t="n">
-        <v>10</v>
-      </c>
-      <c r="K8" t="n">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" t="s" s="1">
-        <v>18</v>
-      </c>
-      <c r="B9" t="n">
-        <v>72</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4</v>
-      </c>
-      <c r="D9" t="n">
-        <v>21</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>13</v>
-      </c>
-      <c r="H9" t="n">
-        <v>113</v>
-      </c>
-      <c r="I9" t="n">
-        <v>80</v>
-      </c>
-      <c r="J9" t="n">
-        <v>92</v>
-      </c>
-      <c r="K9" t="n">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B10" t="n">
-        <v>164</v>
-      </c>
-      <c r="C10" t="n">
-        <v>4</v>
-      </c>
-      <c r="D10" t="n">
-        <v>35</v>
-      </c>
-      <c r="E10" t="n">
-        <v>8</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>22</v>
-      </c>
-      <c r="H10" t="n">
-        <v>233</v>
-      </c>
-      <c r="I10" t="n">
-        <v>189</v>
-      </c>
-      <c r="J10" t="n">
-        <v>357</v>
-      </c>
-      <c r="K10" t="n">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="B11" t="n">
-        <v>33</v>
-      </c>
-      <c r="C11" t="n">
-        <v>4</v>
-      </c>
-      <c r="D11" t="n">
-        <v>25</v>
-      </c>
-      <c r="E11" t="n">
-        <v>17</v>
-      </c>
-      <c r="F11" t="n">
-        <v>3</v>
-      </c>
-      <c r="G11" t="n">
-        <v>7</v>
-      </c>
-      <c r="H11" t="n">
-        <v>89</v>
-      </c>
-      <c r="I11" t="n">
-        <v>51</v>
-      </c>
-      <c r="J11" t="n">
-        <v>69</v>
-      </c>
-      <c r="K11" t="n">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
-      <c r="A12" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B12" t="n">
-        <v>587</v>
-      </c>
-      <c r="C12" t="n">
-        <v>35</v>
-      </c>
-      <c r="D12" t="n">
-        <v>229</v>
-      </c>
-      <c r="E12" t="n">
-        <v>91</v>
-      </c>
-      <c r="F12" t="n">
-        <v>8</v>
-      </c>
-      <c r="G12" t="n">
-        <v>71</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1021</v>
-      </c>
-      <c r="I12" t="n">
-        <v>745</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1127</v>
-      </c>
-      <c r="K12" t="n">
-        <v>1868</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" t="s" s="1">
-        <v>8</v>
-      </c>
-      <c r="B13" t="n">
-        <v>545</v>
-      </c>
-      <c r="C13" t="n">
-        <v>79</v>
-      </c>
-      <c r="D13" t="n">
-        <v>284</v>
-      </c>
-      <c r="E13" t="n">
-        <v>137</v>
-      </c>
-      <c r="F13" t="n">
-        <v>13</v>
-      </c>
-      <c r="G13" t="n">
-        <v>339</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
+        <v>0</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -904,33 +1105,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>6</v>
-      </c>
       <c r="H1" t="s" s="1">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>29.89473684210526</v>
@@ -956,7 +1157,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>25.84269662921348</v>
@@ -982,7 +1183,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
         <v>54.02298850574713</v>
@@ -1008,7 +1209,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>50</v>
@@ -1034,7 +1235,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>29.86425339366516</v>
@@ -1060,7 +1261,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>36.36363636363637</v>
@@ -1086,7 +1287,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>22.22222222222222</v>
@@ -1112,7 +1313,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>36</v>
@@ -1138,7 +1339,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>39.42307692307692</v>
@@ -1164,7 +1365,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>13.8655462184874</v>
@@ -1190,7 +1391,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>31.42398286937901</v>
@@ -1216,7 +1417,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -1247,33 +1448,33 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" t="s" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>1</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="E1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>6</v>
-      </c>
       <c r="H1" t="s" s="1">
-        <v>9</v>
+        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s" s="1">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B2" t="n">
         <v>54.61538461538461</v>
@@ -1299,7 +1500,7 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s" s="1">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>41.44144144144144</v>
@@ -1325,7 +1526,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s" s="1">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B4" t="n">
         <v>66.19718309859155</v>
@@ -1351,7 +1552,7 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s" s="1">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B5" t="n">
         <v>11.11111111111111</v>
@@ -1377,7 +1578,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s" s="1">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" t="n">
         <v>56.41025641025641</v>
@@ -1403,7 +1604,7 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s" s="1">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B7" t="n">
         <v>38.70967741935484</v>
@@ -1429,7 +1630,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s" s="1">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" t="n">
         <v>40</v>
@@ -1455,7 +1656,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s" s="1">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
         <v>78.26086956521739</v>
@@ -1481,7 +1682,7 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s" s="1">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="n">
         <v>45.93837535014006</v>
@@ -1507,7 +1708,7 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s" s="1">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B11" t="n">
         <v>47.82608695652174</v>
@@ -1533,7 +1734,7 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="B12" t="n">
         <v>52.0851818988465</v>
@@ -1559,7 +1760,7 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s" s="1">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -1575,6 +1776,324 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s" s="1">
+        <v>7</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s" s="1">
+        <v>9</v>
+      </c>
+      <c r="B2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C2" t="n">
+        <v>9</v>
+      </c>
+      <c r="D2" t="n">
+        <v>63</v>
+      </c>
+      <c r="E2" t="n">
+        <v>25</v>
+      </c>
+      <c r="F2" t="n">
+        <v>1</v>
+      </c>
+      <c r="G2" t="n">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s" s="1">
+        <v>10</v>
+      </c>
+      <c r="B3" t="n">
+        <v>100</v>
+      </c>
+      <c r="C3" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34</v>
+      </c>
+      <c r="E3" t="n">
+        <v>27</v>
+      </c>
+      <c r="F3" t="n">
+        <v>3</v>
+      </c>
+      <c r="G3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s" s="1">
+        <v>11</v>
+      </c>
+      <c r="B4" t="n">
+        <v>100</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>15</v>
+      </c>
+      <c r="E4" t="n">
+        <v>4</v>
+      </c>
+      <c r="F4" t="n">
+        <v>1</v>
+      </c>
+      <c r="G4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s" s="1">
+        <v>12</v>
+      </c>
+      <c r="B5" t="n">
+        <v>100</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s" s="1">
+        <v>13</v>
+      </c>
+      <c r="B6" t="n">
+        <v>100</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>24</v>
+      </c>
+      <c r="E6" t="n">
+        <v>4</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7" t="s" s="1">
+        <v>14</v>
+      </c>
+      <c r="B7" t="n">
+        <v>100</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+      <c r="D7" t="n">
+        <v>7.000000000000001</v>
+      </c>
+      <c r="E7" t="n">
+        <v>1</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8" t="s" s="1">
+        <v>15</v>
+      </c>
+      <c r="B8" t="n">
+        <v>100</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>5</v>
+      </c>
+      <c r="E8" t="n">
+        <v>2</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9" t="s" s="1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>21</v>
+      </c>
+      <c r="E9" t="n">
+        <v>3</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10" t="s" s="1">
+        <v>17</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>4</v>
+      </c>
+      <c r="D10" t="n">
+        <v>35</v>
+      </c>
+      <c r="E10" t="n">
+        <v>8</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11" t="s" s="1">
+        <v>18</v>
+      </c>
+      <c r="B11" t="n">
+        <v>100</v>
+      </c>
+      <c r="C11" t="n">
+        <v>4</v>
+      </c>
+      <c r="D11" t="n">
+        <v>25</v>
+      </c>
+      <c r="E11" t="n">
+        <v>17</v>
+      </c>
+      <c r="F11" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" t="n">
+        <v>7.000000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12" t="s" s="1">
+        <v>19</v>
+      </c>
+      <c r="B12" t="n">
+        <v>100</v>
+      </c>
+      <c r="C12" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" t="n">
+        <v>229</v>
+      </c>
+      <c r="E12" t="n">
+        <v>91</v>
+      </c>
+      <c r="F12" t="n">
+        <v>8</v>
+      </c>
+      <c r="G12" t="n">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13" t="s" s="1">
+        <v>20</v>
+      </c>
+      <c r="B13" t="n">
+        <v>100</v>
+      </c>
+      <c r="C13" t="n">
+        <v>79</v>
+      </c>
+      <c r="D13" t="n">
+        <v>284</v>
+      </c>
+      <c r="E13" t="n">
+        <v>137</v>
+      </c>
+      <c r="F13" t="n">
+        <v>13</v>
+      </c>
+      <c r="G13" t="n">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1590,28 +2109,28 @@
   <sheetData>
     <row r="1" spans="1:9">
       <c r="B1" t="s" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="C1" t="s" s="1">
         <v>1</v>
       </c>
       <c r="D1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s" s="1">
         <v>2</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="F1" t="s" s="1">
         <v>3</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>6</v>
-      </c>
       <c r="I1" t="s" s="1">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -1619,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C2" t="n">
         <v>142</v>
@@ -1648,7 +2167,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C3" t="n">
         <v>46</v>
@@ -1677,7 +2196,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
         <v>47</v>
@@ -1706,7 +2225,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -1735,7 +2254,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C6" t="n">
         <v>66</v>
@@ -1764,7 +2283,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
@@ -1793,7 +2312,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
@@ -1822,7 +2341,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="n">
         <v>72</v>
@@ -1851,7 +2370,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C10" t="n">
         <v>164</v>
@@ -1880,7 +2399,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" t="n">
         <v>33</v>

--- a/tables/tech_innov_totals.xlsx
+++ b/tables/tech_innov_totals.xlsx
@@ -18,12 +18,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="21">
   <si>
-    <t>PY</t>
+    <t>Technology</t>
   </si>
   <si>
     <t>RD</t>
+  </si>
+  <si>
+    <t>Demos</t>
   </si>
   <si>
     <t>Scaleup</t>
@@ -32,16 +35,19 @@
     <t>Demandpull</t>
   </si>
   <si>
+    <t>Nichemarkets</t>
+  </si>
+  <si>
     <t>Publicaccept</t>
   </si>
   <si>
-    <t>Demos</t>
+    <t>Total</t>
   </si>
   <si>
-    <t>Nichemarkets</t>
+    <t>distinct_Total</t>
   </si>
   <si>
-    <t>Technology</t>
+    <t>distinct_anyrating_Total</t>
   </si>
   <si>
     <t>distinct_alltech_Total</t>
@@ -75,15 +81,6 @@
   </si>
   <si>
     <t>Synonyms</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>distinct_Total</t>
-  </si>
-  <si>
-    <t>distinct_anyrating_Total</t>
   </si>
 </sst>
 </file>
@@ -432,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,104 +437,152 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" t="s" s="1">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
+    <row r="1" spans="1:11">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s" s="1">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s" s="1">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s" s="1">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="n" s="1">
-        <v>1991</v>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>142</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>63</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3" t="n" s="1">
-        <v>1992</v>
+        <v>7</v>
+      </c>
+      <c r="H2" t="n">
+        <v>247</v>
+      </c>
+      <c r="I2" t="n">
+        <v>186</v>
+      </c>
+      <c r="J2" t="n">
+        <v>260</v>
+      </c>
+      <c r="K2" t="n">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>27</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="n" s="1">
-        <v>1993</v>
+        <v>8</v>
+      </c>
+      <c r="H3" t="n">
+        <v>125</v>
+      </c>
+      <c r="I3" t="n">
+        <v>76</v>
+      </c>
+      <c r="J3" t="n">
+        <v>111</v>
+      </c>
+      <c r="K3" t="n">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="n" s="1">
-        <v>1994</v>
+        <v>5</v>
+      </c>
+      <c r="H4" t="n">
+        <v>73</v>
+      </c>
+      <c r="I4" t="n">
+        <v>55</v>
+      </c>
+      <c r="J4" t="n">
+        <v>71</v>
+      </c>
+      <c r="K4" t="n">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -554,535 +599,290 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="n" s="1">
-        <v>1995</v>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1</v>
+      </c>
+      <c r="J5" t="n">
+        <v>9</v>
+      </c>
+      <c r="K5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="n" s="1">
-        <v>1996</v>
+        <v>2</v>
+      </c>
+      <c r="H6" t="n">
+        <v>101</v>
+      </c>
+      <c r="I6" t="n">
+        <v>80</v>
+      </c>
+      <c r="J6" t="n">
+        <v>117</v>
+      </c>
+      <c r="K6" t="n">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="n" s="1">
-        <v>1997</v>
+        <v>5</v>
+      </c>
+      <c r="H7" t="n">
+        <v>26</v>
+      </c>
+      <c r="I7" t="n">
+        <v>18</v>
+      </c>
+      <c r="J7" t="n">
+        <v>31</v>
+      </c>
+      <c r="K7" t="n">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="n" s="1">
-        <v>1998</v>
+        <v>2</v>
+      </c>
+      <c r="H8" t="n">
+        <v>13</v>
+      </c>
+      <c r="I8" t="n">
+        <v>9</v>
+      </c>
+      <c r="J8" t="n">
+        <v>10</v>
+      </c>
+      <c r="K8" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="n" s="1">
-        <v>1999</v>
+        <v>13</v>
+      </c>
+      <c r="H9" t="n">
+        <v>113</v>
+      </c>
+      <c r="I9" t="n">
+        <v>80</v>
+      </c>
+      <c r="J9" t="n">
+        <v>92</v>
+      </c>
+      <c r="K9" t="n">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>164</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="n" s="1">
-        <v>2000</v>
+        <v>22</v>
+      </c>
+      <c r="H10" t="n">
+        <v>233</v>
+      </c>
+      <c r="I10" t="n">
+        <v>189</v>
+      </c>
+      <c r="J10" t="n">
+        <v>357</v>
+      </c>
+      <c r="K10" t="n">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="n" s="1">
-        <v>2001</v>
+        <v>7</v>
+      </c>
+      <c r="H11" t="n">
+        <v>89</v>
+      </c>
+      <c r="I11" t="n">
+        <v>51</v>
+      </c>
+      <c r="J11" t="n">
+        <v>69</v>
+      </c>
+      <c r="K11" t="n">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B12" t="n">
-        <v>0</v>
+        <v>587</v>
       </c>
       <c r="C12" t="n">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="D12" t="n">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="E12" t="n">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="n" s="1">
-        <v>2002</v>
+        <v>71</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1021</v>
+      </c>
+      <c r="I12" t="n">
+        <v>745</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1127</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>545</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>284</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="n" s="1">
-        <v>2003</v>
-      </c>
-      <c r="B14" t="n">
-        <v>0</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="n" s="1">
-        <v>2004</v>
-      </c>
-      <c r="B15" t="n">
-        <v>0</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="n" s="1">
-        <v>2005</v>
-      </c>
-      <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="n" s="1">
-        <v>2006</v>
-      </c>
-      <c r="B17" t="n">
-        <v>0</v>
-      </c>
-      <c r="C17" t="n">
-        <v>1</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="n" s="1">
-        <v>2007</v>
-      </c>
-      <c r="B18" t="n">
-        <v>0</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
-        <v>0</v>
-      </c>
-      <c r="G18" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="n" s="1">
-        <v>2008</v>
-      </c>
-      <c r="B19" t="n">
-        <v>2</v>
-      </c>
-      <c r="C19" t="n">
-        <v>2</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
-        <v>2</v>
-      </c>
-      <c r="G19" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="n" s="1">
-        <v>2009</v>
-      </c>
-      <c r="B20" t="n">
-        <v>4</v>
-      </c>
-      <c r="C20" t="n">
-        <v>2</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="n" s="1">
-        <v>2010</v>
-      </c>
-      <c r="B21" t="n">
-        <v>1</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
-        <v>0</v>
-      </c>
-      <c r="G21" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="n" s="1">
-        <v>2011</v>
-      </c>
-      <c r="B22" t="n">
-        <v>8</v>
-      </c>
-      <c r="C22" t="n">
-        <v>1</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
-        <v>0</v>
-      </c>
-      <c r="G22" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="n" s="1">
-        <v>2012</v>
-      </c>
-      <c r="B23" t="n">
-        <v>11</v>
-      </c>
-      <c r="C23" t="n">
-        <v>4</v>
-      </c>
-      <c r="D23" t="n">
-        <v>1</v>
-      </c>
-      <c r="E23" t="n">
-        <v>2</v>
-      </c>
-      <c r="F23" t="n">
-        <v>1</v>
-      </c>
-      <c r="G23" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="n" s="1">
-        <v>2013</v>
-      </c>
-      <c r="B24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C24" t="n">
-        <v>6</v>
-      </c>
-      <c r="D24" t="n">
-        <v>1</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="n" s="1">
-        <v>2014</v>
-      </c>
-      <c r="B25" t="n">
-        <v>7</v>
-      </c>
-      <c r="C25" t="n">
-        <v>2</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
-        <v>0</v>
-      </c>
-      <c r="G25" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="n" s="1">
-        <v>2015</v>
-      </c>
-      <c r="B26" t="n">
-        <v>7</v>
-      </c>
-      <c r="C26" t="n">
-        <v>2</v>
-      </c>
-      <c r="D26" t="n">
-        <v>1</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
-        <v>1</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="n" s="1">
-        <v>2016</v>
-      </c>
-      <c r="B27" t="n">
-        <v>12</v>
-      </c>
-      <c r="C27" t="n">
-        <v>3</v>
-      </c>
-      <c r="D27" t="n">
-        <v>1</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
-      </c>
-      <c r="G27" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="n" s="1">
-        <v>2017</v>
-      </c>
-      <c r="B28" t="n">
-        <v>4</v>
-      </c>
-      <c r="C28" t="n">
-        <v>1</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
+        <v>339</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s"/>
+      <c r="K13" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1104,34 +904,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>8</v>
+      <c r="H1" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s" s="1">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>29.89473684210526</v>
@@ -1156,8 +956,8 @@
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s" s="1">
-        <v>10</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>25.84269662921348</v>
@@ -1182,8 +982,8 @@
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s" s="1">
-        <v>11</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>54.02298850574713</v>
@@ -1208,8 +1008,8 @@
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s" s="1">
-        <v>12</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>50</v>
@@ -1234,8 +1034,8 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s" s="1">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>29.86425339366516</v>
@@ -1260,8 +1060,8 @@
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s" s="1">
-        <v>14</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="n">
         <v>36.36363636363637</v>
@@ -1286,8 +1086,8 @@
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s" s="1">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>22.22222222222222</v>
@@ -1312,8 +1112,8 @@
       </c>
     </row>
     <row r="9" spans="1:8">
-      <c r="A9" t="s" s="1">
-        <v>16</v>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>36</v>
@@ -1338,8 +1138,8 @@
       </c>
     </row>
     <row r="10" spans="1:8">
-      <c r="A10" t="s" s="1">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B10" t="n">
         <v>39.42307692307692</v>
@@ -1364,8 +1164,8 @@
       </c>
     </row>
     <row r="11" spans="1:8">
-      <c r="A11" t="s" s="1">
-        <v>18</v>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>13.8655462184874</v>
@@ -1390,8 +1190,8 @@
       </c>
     </row>
     <row r="12" spans="1:8">
-      <c r="A12" t="s" s="1">
-        <v>19</v>
+      <c r="A12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B12" t="n">
         <v>31.42398286937901</v>
@@ -1416,8 +1216,8 @@
       </c>
     </row>
     <row r="13" spans="1:8">
-      <c r="A13" t="s" s="1">
-        <v>20</v>
+      <c r="A13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B13" t="s"/>
       <c r="C13" t="s"/>
@@ -1438,7 +1238,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1447,115 +1247,115 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" t="s" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>21</v>
-      </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" t="s" s="1">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="n">
-        <v>54.61538461538461</v>
+        <v>100</v>
       </c>
       <c r="C2" t="n">
-        <v>3.461538461538462</v>
+        <v>69.23076923076923</v>
       </c>
       <c r="D2" t="n">
-        <v>24.23076923076923</v>
+        <v>78.75</v>
       </c>
       <c r="E2" t="n">
-        <v>9.615384615384617</v>
+        <v>58.13953488372093</v>
       </c>
       <c r="F2" t="n">
-        <v>0.3846153846153846</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="G2" t="n">
-        <v>2.692307692307693</v>
+        <v>8.13953488372093</v>
       </c>
       <c r="H2" t="n">
-        <v>100</v>
+        <v>67.30245231607628</v>
       </c>
     </row>
     <row r="3" spans="1:8">
-      <c r="A3" t="s" s="1">
-        <v>10</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="n">
-        <v>41.44144144144144</v>
+        <v>100</v>
       </c>
       <c r="C3" t="n">
-        <v>6.306306306306306</v>
+        <v>41.17647058823529</v>
       </c>
       <c r="D3" t="n">
-        <v>30.63063063063063</v>
+        <v>64.15094339622641</v>
       </c>
       <c r="E3" t="n">
-        <v>24.32432432432433</v>
+        <v>54</v>
       </c>
       <c r="F3" t="n">
-        <v>2.702702702702703</v>
+        <v>100</v>
       </c>
       <c r="G3" t="n">
-        <v>7.207207207207207</v>
+        <v>20.51282051282051</v>
       </c>
       <c r="H3" t="n">
-        <v>100</v>
+        <v>60.09615384615385</v>
       </c>
     </row>
     <row r="4" spans="1:8">
-      <c r="A4" t="s" s="1">
-        <v>11</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="n">
-        <v>66.19718309859155</v>
+        <v>100</v>
       </c>
       <c r="C4" t="n">
-        <v>1.408450704225352</v>
+        <v>11.11111111111111</v>
       </c>
       <c r="D4" t="n">
-        <v>21.12676056338028</v>
+        <v>71.42857142857143</v>
       </c>
       <c r="E4" t="n">
-        <v>5.633802816901409</v>
+        <v>44.44444444444444</v>
       </c>
       <c r="F4" t="n">
-        <v>1.408450704225352</v>
+        <v>100</v>
       </c>
       <c r="G4" t="n">
-        <v>7.042253521126761</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>66.97247706422019</v>
       </c>
     </row>
     <row r="5" spans="1:8">
-      <c r="A5" t="s" s="1">
-        <v>12</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="n">
-        <v>11.11111111111111</v>
+        <v>100</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -1577,198 +1377,160 @@
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" t="s" s="1">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="n">
-        <v>56.41025641025641</v>
+        <v>100</v>
       </c>
       <c r="C6" t="n">
-        <v>4.273504273504273</v>
+        <v>22.72727272727273</v>
       </c>
       <c r="D6" t="n">
-        <v>20.51282051282051</v>
+        <v>66.66666666666666</v>
       </c>
       <c r="E6" t="n">
-        <v>3.418803418803419</v>
+        <v>36.36363636363637</v>
       </c>
       <c r="F6" t="n">
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.70940170940171</v>
+        <v>11.76470588235294</v>
       </c>
       <c r="H6" t="n">
-        <v>100</v>
+        <v>66.01307189542483</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" t="s" s="1">
-        <v>14</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="n">
-        <v>38.70967741935484</v>
+        <v>100</v>
       </c>
       <c r="C7" t="n">
-        <v>3.225806451612903</v>
+        <v>50</v>
       </c>
       <c r="D7" t="n">
-        <v>22.58064516129032</v>
+        <v>77.77777777777779</v>
       </c>
       <c r="E7" t="n">
-        <v>3.225806451612903</v>
+        <v>100</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>16.12903225806452</v>
+        <v>62.5</v>
       </c>
       <c r="H7" t="n">
-        <v>100</v>
+        <v>81.25</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" t="s" s="1">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="n">
-        <v>40</v>
+        <v>100</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
+        <v>100</v>
+      </c>
+      <c r="E8" t="n">
+        <v>100</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="H8" t="n">
+        <v>76.47058823529412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" t="n">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="D9" t="n">
+        <v>61.76470588235294</v>
+      </c>
+      <c r="E9" t="n">
+        <v>42.85714285714285</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>54.16666666666666</v>
+      </c>
+      <c r="H9" t="n">
+        <v>77.93103448275862</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="n">
+        <v>100</v>
+      </c>
+      <c r="C10" t="n">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="D10" t="n">
+        <v>64.81481481481481</v>
+      </c>
+      <c r="E10" t="n">
         <v>50</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>15.71428571428571</v>
+      </c>
+      <c r="H10" t="n">
+        <v>59.74358974358974</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>20</v>
-      </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s" s="1">
-        <v>16</v>
-      </c>
-      <c r="B9" t="n">
-        <v>78.26086956521739</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.347826086956522</v>
-      </c>
-      <c r="D9" t="n">
-        <v>22.82608695652174</v>
-      </c>
-      <c r="E9" t="n">
-        <v>3.260869565217391</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>14.1304347826087</v>
-      </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s" s="1">
-        <v>17</v>
-      </c>
-      <c r="B10" t="n">
-        <v>45.93837535014006</v>
-      </c>
-      <c r="C10" t="n">
-        <v>1.120448179271709</v>
-      </c>
-      <c r="D10" t="n">
-        <v>9.803921568627452</v>
-      </c>
-      <c r="E10" t="n">
-        <v>2.240896358543417</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>6.162464985994398</v>
-      </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s" s="1">
-        <v>18</v>
-      </c>
       <c r="B11" t="n">
-        <v>47.82608695652174</v>
+        <v>100</v>
       </c>
       <c r="C11" t="n">
-        <v>5.797101449275362</v>
+        <v>50</v>
       </c>
       <c r="D11" t="n">
-        <v>36.23188405797102</v>
+        <v>73.52941176470588</v>
       </c>
       <c r="E11" t="n">
-        <v>24.63768115942029</v>
+        <v>62.96296296296296</v>
       </c>
       <c r="F11" t="n">
-        <v>4.347826086956522</v>
+        <v>100</v>
       </c>
       <c r="G11" t="n">
-        <v>10.14492753623188</v>
+        <v>33.33333333333333</v>
       </c>
       <c r="H11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s" s="1">
-        <v>19</v>
-      </c>
-      <c r="B12" t="n">
-        <v>52.0851818988465</v>
-      </c>
-      <c r="C12" t="n">
-        <v>3.105590062111801</v>
-      </c>
-      <c r="D12" t="n">
-        <v>20.31943212067436</v>
-      </c>
-      <c r="E12" t="n">
-        <v>8.074534161490684</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0.709849157054126</v>
-      </c>
-      <c r="G12" t="n">
-        <v>6.299911268855368</v>
-      </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s" s="1">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
+        <v>70.63492063492063</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1790,31 +1552,31 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" t="s" s="1">
-        <v>7</v>
-      </c>
-      <c r="B1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="1">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s" s="1">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" t="s" s="1">
-        <v>4</v>
-      </c>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" t="s" s="1">
-        <v>9</v>
+      <c r="A2" s="1" t="s">
+        <v>11</v>
       </c>
       <c r="B2" t="n">
         <v>100</v>
@@ -1836,8 +1598,8 @@
       </c>
     </row>
     <row r="3" spans="1:7">
-      <c r="A3" t="s" s="1">
-        <v>10</v>
+      <c r="A3" s="1" t="s">
+        <v>12</v>
       </c>
       <c r="B3" t="n">
         <v>100</v>
@@ -1859,8 +1621,8 @@
       </c>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" t="s" s="1">
-        <v>11</v>
+      <c r="A4" s="1" t="s">
+        <v>13</v>
       </c>
       <c r="B4" t="n">
         <v>100</v>
@@ -1882,8 +1644,8 @@
       </c>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" t="s" s="1">
-        <v>12</v>
+      <c r="A5" s="1" t="s">
+        <v>14</v>
       </c>
       <c r="B5" t="n">
         <v>100</v>
@@ -1905,8 +1667,8 @@
       </c>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" t="s" s="1">
-        <v>13</v>
+      <c r="A6" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="B6" t="n">
         <v>100</v>
@@ -1928,8 +1690,8 @@
       </c>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" t="s" s="1">
-        <v>14</v>
+      <c r="A7" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="B7" t="n">
         <v>100</v>
@@ -1951,8 +1713,8 @@
       </c>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" t="s" s="1">
-        <v>15</v>
+      <c r="A8" s="1" t="s">
+        <v>17</v>
       </c>
       <c r="B8" t="n">
         <v>100</v>
@@ -1974,8 +1736,8 @@
       </c>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" t="s" s="1">
-        <v>16</v>
+      <c r="A9" s="1" t="s">
+        <v>18</v>
       </c>
       <c r="B9" t="n">
         <v>100</v>
@@ -1997,8 +1759,8 @@
       </c>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" t="s" s="1">
-        <v>17</v>
+      <c r="A10" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="B10" t="n">
         <v>100</v>
@@ -2020,8 +1782,8 @@
       </c>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" t="s" s="1">
-        <v>18</v>
+      <c r="A11" s="1" t="s">
+        <v>20</v>
       </c>
       <c r="B11" t="n">
         <v>100</v>
@@ -2043,8 +1805,8 @@
       </c>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" t="s" s="1">
-        <v>19</v>
+      <c r="A12" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="B12" t="n">
         <v>100</v>
@@ -2066,8 +1828,8 @@
       </c>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" t="s" s="1">
-        <v>20</v>
+      <c r="A13" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="B13" t="n">
         <v>100</v>
@@ -2108,37 +1870,37 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="B1" t="s" s="1">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" t="s" s="1">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>5</v>
-      </c>
-      <c r="E1" t="s" s="1">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s" s="1">
-        <v>3</v>
-      </c>
-      <c r="G1" t="s" s="1">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s" s="1">
-        <v>4</v>
-      </c>
-      <c r="I1" t="s" s="1">
-        <v>19</v>
-      </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" t="n" s="1">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>142</v>
@@ -2163,11 +1925,11 @@
       </c>
     </row>
     <row r="3" spans="1:9">
-      <c r="A3" t="n" s="1">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C3" t="n">
         <v>46</v>
@@ -2192,11 +1954,11 @@
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" t="n" s="1">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
         <v>47</v>
@@ -2221,11 +1983,11 @@
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" t="n" s="1">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -2250,11 +2012,11 @@
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" t="n" s="1">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="C6" t="n">
         <v>66</v>
@@ -2279,11 +2041,11 @@
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" t="n" s="1">
+      <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="C7" t="n">
         <v>12</v>
@@ -2308,11 +2070,11 @@
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" t="n" s="1">
+      <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
@@ -2337,11 +2099,11 @@
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" t="n" s="1">
+      <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C9" t="n">
         <v>72</v>
@@ -2366,11 +2128,11 @@
       </c>
     </row>
     <row r="10" spans="1:9">
-      <c r="A10" t="n" s="1">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C10" t="n">
         <v>164</v>
@@ -2395,11 +2157,11 @@
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" t="n" s="1">
+      <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" t="n">
         <v>33</v>

--- a/tables/tech_innov_totals.xlsx
+++ b/tables/tech_innov_totals.xlsx
@@ -865,19 +865,19 @@
         <v>545</v>
       </c>
       <c r="C13" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="E13" t="n">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>339</v>
+        <v>62</v>
       </c>
       <c r="H13" t="s"/>
       <c r="I13" t="s"/>
@@ -1835,19 +1835,19 @@
         <v>100</v>
       </c>
       <c r="C13" t="n">
-        <v>79</v>
+        <v>27</v>
       </c>
       <c r="D13" t="n">
-        <v>284</v>
+        <v>193</v>
       </c>
       <c r="E13" t="n">
-        <v>137</v>
+        <v>71</v>
       </c>
       <c r="F13" t="n">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="G13" t="n">
-        <v>339</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>

--- a/tables/tech_innov_totals.xlsx
+++ b/tables/tech_innov_totals.xlsx
@@ -437,452 +437,452 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row spans="1:11" r="1">
+      <c t="s" r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c t="s" r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c t="s" r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c t="s" r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c t="s" r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c t="s" r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c t="s" r="H1" s="1">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c t="s" r="I1" s="1">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c t="s" r="J1" s="1">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c t="s" r="K1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
+    <row spans="1:11" r="2">
+      <c t="s" r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="n">
+      <c t="n" r="B2">
         <v>142</v>
       </c>
-      <c r="C2" t="n">
+      <c t="n" r="C2">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c t="n" r="D2">
         <v>63</v>
       </c>
-      <c r="E2" t="n">
+      <c t="n" r="E2">
         <v>25</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c t="n" r="F2">
+        <v>1</v>
+      </c>
+      <c t="n" r="G2">
         <v>7</v>
       </c>
-      <c r="H2" t="n">
+      <c t="n" r="H2">
         <v>247</v>
       </c>
-      <c r="I2" t="n">
+      <c t="n" r="I2">
         <v>186</v>
       </c>
-      <c r="J2" t="n">
+      <c t="n" r="J2">
         <v>260</v>
       </c>
-      <c r="K2" t="n">
+      <c t="n" r="K2">
         <v>475</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="1" t="s">
+    <row spans="1:11" r="3">
+      <c t="s" r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
+      <c t="n" r="B3">
         <v>46</v>
       </c>
-      <c r="C3" t="n">
+      <c t="n" r="C3">
         <v>7</v>
       </c>
-      <c r="D3" t="n">
+      <c t="n" r="D3">
         <v>34</v>
       </c>
-      <c r="E3" t="n">
+      <c t="n" r="E3">
         <v>27</v>
       </c>
-      <c r="F3" t="n">
+      <c t="n" r="F3">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c t="n" r="G3">
         <v>8</v>
       </c>
-      <c r="H3" t="n">
+      <c t="n" r="H3">
         <v>125</v>
       </c>
-      <c r="I3" t="n">
+      <c t="n" r="I3">
         <v>76</v>
       </c>
-      <c r="J3" t="n">
+      <c t="n" r="J3">
         <v>111</v>
       </c>
-      <c r="K3" t="n">
+      <c t="n" r="K3">
         <v>178</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="1" t="s">
+    <row spans="1:11" r="4">
+      <c t="s" r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
+      <c t="n" r="B4">
         <v>47</v>
       </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
+      <c t="n" r="C4">
+        <v>1</v>
+      </c>
+      <c t="n" r="D4">
         <v>15</v>
       </c>
-      <c r="E4" t="n">
+      <c t="n" r="E4">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
+      <c t="n" r="F4">
+        <v>1</v>
+      </c>
+      <c t="n" r="G4">
         <v>5</v>
       </c>
-      <c r="H4" t="n">
+      <c t="n" r="H4">
         <v>73</v>
       </c>
-      <c r="I4" t="n">
+      <c t="n" r="I4">
         <v>55</v>
       </c>
-      <c r="J4" t="n">
+      <c t="n" r="J4">
         <v>71</v>
       </c>
-      <c r="K4" t="n">
+      <c t="n" r="K4">
         <v>87</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="1" t="s">
+    <row spans="1:11" r="5">
+      <c t="s" r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" t="n">
-        <v>1</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-      <c r="J5" t="n">
+      <c t="n" r="B5">
+        <v>1</v>
+      </c>
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0</v>
+      </c>
+      <c t="n" r="F5">
+        <v>0</v>
+      </c>
+      <c t="n" r="G5">
+        <v>0</v>
+      </c>
+      <c t="n" r="H5">
+        <v>1</v>
+      </c>
+      <c t="n" r="I5">
+        <v>1</v>
+      </c>
+      <c t="n" r="J5">
         <v>9</v>
       </c>
-      <c r="K5" t="n">
+      <c t="n" r="K5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="1" t="s">
+    <row spans="1:11" r="6">
+      <c t="s" r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6" t="n">
+      <c t="n" r="B6">
         <v>66</v>
       </c>
-      <c r="C6" t="n">
+      <c t="n" r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c t="n" r="D6">
         <v>24</v>
       </c>
-      <c r="E6" t="n">
+      <c t="n" r="E6">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c t="n" r="F6">
+        <v>0</v>
+      </c>
+      <c t="n" r="G6">
         <v>2</v>
       </c>
-      <c r="H6" t="n">
+      <c t="n" r="H6">
         <v>101</v>
       </c>
-      <c r="I6" t="n">
+      <c t="n" r="I6">
         <v>80</v>
       </c>
-      <c r="J6" t="n">
+      <c t="n" r="J6">
         <v>117</v>
       </c>
-      <c r="K6" t="n">
+      <c t="n" r="K6">
         <v>221</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="1" t="s">
+    <row spans="1:11" r="7">
+      <c t="s" r="A7" s="1">
         <v>16</v>
       </c>
-      <c r="B7" t="n">
+      <c t="n" r="B7">
         <v>12</v>
       </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
+      <c t="n" r="C7">
+        <v>1</v>
+      </c>
+      <c t="n" r="D7">
         <v>7</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c t="n" r="E7">
+        <v>1</v>
+      </c>
+      <c t="n" r="F7">
+        <v>0</v>
+      </c>
+      <c t="n" r="G7">
         <v>5</v>
       </c>
-      <c r="H7" t="n">
+      <c t="n" r="H7">
         <v>26</v>
       </c>
-      <c r="I7" t="n">
+      <c t="n" r="I7">
         <v>18</v>
       </c>
-      <c r="J7" t="n">
+      <c t="n" r="J7">
         <v>31</v>
       </c>
-      <c r="K7" t="n">
+      <c t="n" r="K7">
         <v>33</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="1" t="s">
+    <row spans="1:11" r="8">
+      <c t="s" r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="B8" t="n">
+      <c t="n" r="B8">
         <v>4</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c t="n" r="C8">
+        <v>0</v>
+      </c>
+      <c t="n" r="D8">
         <v>5</v>
       </c>
-      <c r="E8" t="n">
+      <c t="n" r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c t="n" r="F8">
+        <v>0</v>
+      </c>
+      <c t="n" r="G8">
         <v>2</v>
       </c>
-      <c r="H8" t="n">
+      <c t="n" r="H8">
         <v>13</v>
       </c>
-      <c r="I8" t="n">
+      <c t="n" r="I8">
         <v>9</v>
       </c>
-      <c r="J8" t="n">
+      <c t="n" r="J8">
         <v>10</v>
       </c>
-      <c r="K8" t="n">
+      <c t="n" r="K8">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="1" t="s">
+    <row spans="1:11" r="9">
+      <c t="s" r="A9" s="1">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
+      <c t="n" r="B9">
         <v>72</v>
       </c>
-      <c r="C9" t="n">
+      <c t="n" r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c t="n" r="D9">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
+      <c t="n" r="E9">
         <v>3</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c t="n" r="F9">
+        <v>0</v>
+      </c>
+      <c t="n" r="G9">
         <v>13</v>
       </c>
-      <c r="H9" t="n">
+      <c t="n" r="H9">
         <v>113</v>
       </c>
-      <c r="I9" t="n">
+      <c t="n" r="I9">
         <v>80</v>
       </c>
-      <c r="J9" t="n">
+      <c t="n" r="J9">
         <v>92</v>
       </c>
-      <c r="K9" t="n">
+      <c t="n" r="K9">
         <v>200</v>
       </c>
     </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="1" t="s">
+    <row spans="1:11" r="10">
+      <c t="s" r="A10" s="1">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
+      <c t="n" r="B10">
         <v>164</v>
       </c>
-      <c r="C10" t="n">
+      <c t="n" r="C10">
         <v>4</v>
       </c>
-      <c r="D10" t="n">
+      <c t="n" r="D10">
         <v>35</v>
       </c>
-      <c r="E10" t="n">
+      <c t="n" r="E10">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c t="n" r="F10">
+        <v>0</v>
+      </c>
+      <c t="n" r="G10">
         <v>22</v>
       </c>
-      <c r="H10" t="n">
+      <c t="n" r="H10">
         <v>233</v>
       </c>
-      <c r="I10" t="n">
+      <c t="n" r="I10">
         <v>189</v>
       </c>
-      <c r="J10" t="n">
+      <c t="n" r="J10">
         <v>357</v>
       </c>
-      <c r="K10" t="n">
+      <c t="n" r="K10">
         <v>416</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="1" t="s">
+    <row spans="1:11" r="11">
+      <c t="s" r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11" t="n">
+      <c t="n" r="B11">
         <v>33</v>
       </c>
-      <c r="C11" t="n">
+      <c t="n" r="C11">
         <v>4</v>
       </c>
-      <c r="D11" t="n">
+      <c t="n" r="D11">
         <v>25</v>
       </c>
-      <c r="E11" t="n">
+      <c t="n" r="E11">
         <v>17</v>
       </c>
-      <c r="F11" t="n">
+      <c t="n" r="F11">
         <v>3</v>
       </c>
-      <c r="G11" t="n">
+      <c t="n" r="G11">
         <v>7</v>
       </c>
-      <c r="H11" t="n">
+      <c t="n" r="H11">
         <v>89</v>
       </c>
-      <c r="I11" t="n">
+      <c t="n" r="I11">
         <v>51</v>
       </c>
-      <c r="J11" t="n">
+      <c t="n" r="J11">
         <v>69</v>
       </c>
-      <c r="K11" t="n">
+      <c t="n" r="K11">
         <v>238</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
-      <c r="A12" s="1" t="s">
+    <row spans="1:11" r="12">
+      <c t="s" r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" t="n">
+      <c t="n" r="B12">
         <v>587</v>
       </c>
-      <c r="C12" t="n">
+      <c t="n" r="C12">
         <v>35</v>
       </c>
-      <c r="D12" t="n">
+      <c t="n" r="D12">
         <v>229</v>
       </c>
-      <c r="E12" t="n">
+      <c t="n" r="E12">
         <v>91</v>
       </c>
-      <c r="F12" t="n">
+      <c t="n" r="F12">
         <v>8</v>
       </c>
-      <c r="G12" t="n">
+      <c t="n" r="G12">
         <v>71</v>
       </c>
-      <c r="H12" t="n">
+      <c t="n" r="H12">
         <v>1021</v>
       </c>
-      <c r="I12" t="n">
+      <c t="n" r="I12">
         <v>745</v>
       </c>
-      <c r="J12" t="n">
+      <c t="n" r="J12">
         <v>1127</v>
       </c>
-      <c r="K12" t="n">
+      <c t="n" r="K12">
         <v>1868</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
+    <row spans="1:11" r="13">
+      <c t="s" r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" t="n">
+      <c t="n" r="B13">
         <v>545</v>
       </c>
-      <c r="C13" t="n">
+      <c t="n" r="C13">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
+      <c t="n" r="D13">
         <v>193</v>
       </c>
-      <c r="E13" t="n">
+      <c t="n" r="E13">
         <v>71</v>
       </c>
-      <c r="F13" t="n">
+      <c t="n" r="F13">
         <v>6</v>
       </c>
-      <c r="G13" t="n">
+      <c t="n" r="G13">
         <v>62</v>
       </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s"/>
-      <c r="J13" t="s"/>
-      <c r="K13" t="s"/>
+      <c t="s" r="H13"/>
+      <c t="s" r="I13"/>
+      <c t="s" r="J13"/>
+      <c t="s" r="K13"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -903,329 +903,329 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c t="s" r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c t="s" r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c t="s" r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c t="s" r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c t="s" r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c t="s" r="H1" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row spans="1:8" r="2">
+      <c t="s" r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="n">
+      <c t="n" r="B2">
         <v>29.89473684210526</v>
       </c>
-      <c r="C2" t="n">
+      <c t="n" r="C2">
         <v>1.894736842105263</v>
       </c>
-      <c r="D2" t="n">
+      <c t="n" r="D2">
         <v>13.26315789473684</v>
       </c>
-      <c r="E2" t="n">
+      <c t="n" r="E2">
         <v>5.263157894736842</v>
       </c>
-      <c r="F2" t="n">
+      <c t="n" r="F2">
         <v>0.2105263157894737</v>
       </c>
-      <c r="G2" t="n">
+      <c t="n" r="G2">
         <v>1.473684210526316</v>
       </c>
-      <c r="H2" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+      <c t="n" r="H2">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="3">
+      <c t="s" r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
+      <c t="n" r="B3">
         <v>25.84269662921348</v>
       </c>
-      <c r="C3" t="n">
+      <c t="n" r="C3">
         <v>3.932584269662921</v>
       </c>
-      <c r="D3" t="n">
+      <c t="n" r="D3">
         <v>19.10112359550562</v>
       </c>
-      <c r="E3" t="n">
+      <c t="n" r="E3">
         <v>15.1685393258427</v>
       </c>
-      <c r="F3" t="n">
+      <c t="n" r="F3">
         <v>1.685393258426966</v>
       </c>
-      <c r="G3" t="n">
+      <c t="n" r="G3">
         <v>4.49438202247191</v>
       </c>
-      <c r="H3" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+      <c t="n" r="H3">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="4">
+      <c t="s" r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
+      <c t="n" r="B4">
         <v>54.02298850574713</v>
       </c>
-      <c r="C4" t="n">
+      <c t="n" r="C4">
         <v>1.149425287356322</v>
       </c>
-      <c r="D4" t="n">
+      <c t="n" r="D4">
         <v>17.24137931034483</v>
       </c>
-      <c r="E4" t="n">
+      <c t="n" r="E4">
         <v>4.597701149425287</v>
       </c>
-      <c r="F4" t="n">
+      <c t="n" r="F4">
         <v>1.149425287356322</v>
       </c>
-      <c r="G4" t="n">
+      <c t="n" r="G4">
         <v>5.747126436781609</v>
       </c>
-      <c r="H4" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+      <c t="n" r="H4">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="5">
+      <c t="s" r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" t="n">
+      <c t="n" r="B5">
         <v>50</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0</v>
+      </c>
+      <c t="n" r="F5">
+        <v>0</v>
+      </c>
+      <c t="n" r="G5">
+        <v>0</v>
+      </c>
+      <c t="n" r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="6">
+      <c t="s" r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6" t="n">
+      <c t="n" r="B6">
         <v>29.86425339366516</v>
       </c>
-      <c r="C6" t="n">
+      <c t="n" r="C6">
         <v>2.262443438914027</v>
       </c>
-      <c r="D6" t="n">
+      <c t="n" r="D6">
         <v>10.85972850678733</v>
       </c>
-      <c r="E6" t="n">
+      <c t="n" r="E6">
         <v>1.809954751131222</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c t="n" r="F6">
+        <v>0</v>
+      </c>
+      <c t="n" r="G6">
         <v>0.904977375565611</v>
       </c>
-      <c r="H6" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+      <c t="n" r="H6">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="7">
+      <c t="s" r="A7" s="1">
         <v>16</v>
       </c>
-      <c r="B7" t="n">
+      <c t="n" r="B7">
         <v>36.36363636363637</v>
       </c>
-      <c r="C7" t="n">
+      <c t="n" r="C7">
         <v>3.03030303030303</v>
       </c>
-      <c r="D7" t="n">
+      <c t="n" r="D7">
         <v>21.21212121212121</v>
       </c>
-      <c r="E7" t="n">
+      <c t="n" r="E7">
         <v>3.03030303030303</v>
       </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c t="n" r="F7">
+        <v>0</v>
+      </c>
+      <c t="n" r="G7">
         <v>15.15151515151515</v>
       </c>
-      <c r="H7" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+      <c t="n" r="H7">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="8">
+      <c t="s" r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="B8" t="n">
+      <c t="n" r="B8">
         <v>22.22222222222222</v>
       </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c t="n" r="C8">
+        <v>0</v>
+      </c>
+      <c t="n" r="D8">
         <v>27.77777777777778</v>
       </c>
-      <c r="E8" t="n">
+      <c t="n" r="E8">
         <v>11.11111111111111</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c t="n" r="F8">
+        <v>0</v>
+      </c>
+      <c t="n" r="G8">
         <v>11.11111111111111</v>
       </c>
-      <c r="H8" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+      <c t="n" r="H8">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="9">
+      <c t="s" r="A9" s="1">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
+      <c t="n" r="B9">
         <v>36</v>
       </c>
-      <c r="C9" t="n">
+      <c t="n" r="C9">
         <v>2</v>
       </c>
-      <c r="D9" t="n">
+      <c t="n" r="D9">
         <v>10.5</v>
       </c>
-      <c r="E9" t="n">
+      <c t="n" r="E9">
         <v>1.5</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c t="n" r="F9">
+        <v>0</v>
+      </c>
+      <c t="n" r="G9">
         <v>6.5</v>
       </c>
-      <c r="H9" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+      <c t="n" r="H9">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="10">
+      <c t="s" r="A10" s="1">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
+      <c t="n" r="B10">
         <v>39.42307692307692</v>
       </c>
-      <c r="C10" t="n">
+      <c t="n" r="C10">
         <v>0.9615384615384616</v>
       </c>
-      <c r="D10" t="n">
+      <c t="n" r="D10">
         <v>8.413461538461538</v>
       </c>
-      <c r="E10" t="n">
+      <c t="n" r="E10">
         <v>1.923076923076923</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c t="n" r="F10">
+        <v>0</v>
+      </c>
+      <c t="n" r="G10">
         <v>5.288461538461538</v>
       </c>
-      <c r="H10" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+      <c t="n" r="H10">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="11">
+      <c t="s" r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11" t="n">
+      <c t="n" r="B11">
         <v>13.8655462184874</v>
       </c>
-      <c r="C11" t="n">
+      <c t="n" r="C11">
         <v>1.680672268907563</v>
       </c>
-      <c r="D11" t="n">
+      <c t="n" r="D11">
         <v>10.50420168067227</v>
       </c>
-      <c r="E11" t="n">
+      <c t="n" r="E11">
         <v>7.142857142857142</v>
       </c>
-      <c r="F11" t="n">
+      <c t="n" r="F11">
         <v>1.260504201680672</v>
       </c>
-      <c r="G11" t="n">
+      <c t="n" r="G11">
         <v>2.941176470588235</v>
       </c>
-      <c r="H11" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
+      <c t="n" r="H11">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="12">
+      <c t="s" r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" t="n">
+      <c t="n" r="B12">
         <v>31.42398286937901</v>
       </c>
-      <c r="C12" t="n">
+      <c t="n" r="C12">
         <v>1.873661670235546</v>
       </c>
-      <c r="D12" t="n">
+      <c t="n" r="D12">
         <v>12.25910064239829</v>
       </c>
-      <c r="E12" t="n">
+      <c t="n" r="E12">
         <v>4.87152034261242</v>
       </c>
-      <c r="F12" t="n">
+      <c t="n" r="F12">
         <v>0.4282655246252677</v>
       </c>
-      <c r="G12" t="n">
+      <c t="n" r="G12">
         <v>3.800856531049251</v>
       </c>
-      <c r="H12" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
+      <c t="n" r="H12">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="13">
+      <c t="s" r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
-      <c r="D13" t="s"/>
-      <c r="E13" t="s"/>
-      <c r="F13" t="s"/>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s"/>
+      <c t="s" r="B13"/>
+      <c t="s" r="C13"/>
+      <c t="s" r="D13"/>
+      <c t="s" r="E13"/>
+      <c t="s" r="F13"/>
+      <c t="s" r="G13"/>
+      <c t="s" r="H13"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
@@ -1246,289 +1246,289 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row spans="1:8" r="1">
+      <c t="s" r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c t="s" r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c t="s" r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c t="s" r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c t="s" r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c t="s" r="G1" s="1">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c t="s" r="H1" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row spans="1:8" r="2">
+      <c t="s" r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" t="n">
+      <c t="n" r="B2">
+        <v>100</v>
+      </c>
+      <c t="n" r="C2">
         <v>69.23076923076923</v>
       </c>
-      <c r="D2" t="n">
+      <c t="n" r="D2">
         <v>78.75</v>
       </c>
-      <c r="E2" t="n">
+      <c t="n" r="E2">
         <v>58.13953488372093</v>
       </c>
-      <c r="F2" t="n">
+      <c t="n" r="F2">
         <v>33.33333333333333</v>
       </c>
-      <c r="G2" t="n">
+      <c t="n" r="G2">
         <v>8.13953488372093</v>
       </c>
-      <c r="H2" t="n">
+      <c t="n" r="H2">
         <v>67.30245231607628</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row spans="1:8" r="3">
+      <c t="s" r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" t="n">
+      <c t="n" r="B3">
+        <v>100</v>
+      </c>
+      <c t="n" r="C3">
         <v>41.17647058823529</v>
       </c>
-      <c r="D3" t="n">
+      <c t="n" r="D3">
         <v>64.15094339622641</v>
       </c>
-      <c r="E3" t="n">
+      <c t="n" r="E3">
         <v>54</v>
       </c>
-      <c r="F3" t="n">
-        <v>100</v>
-      </c>
-      <c r="G3" t="n">
+      <c t="n" r="F3">
+        <v>100</v>
+      </c>
+      <c t="n" r="G3">
         <v>20.51282051282051</v>
       </c>
-      <c r="H3" t="n">
+      <c t="n" r="H3">
         <v>60.09615384615385</v>
       </c>
     </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
+    <row spans="1:8" r="4">
+      <c t="s" r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" t="n">
+      <c t="n" r="B4">
+        <v>100</v>
+      </c>
+      <c t="n" r="C4">
         <v>11.11111111111111</v>
       </c>
-      <c r="D4" t="n">
+      <c t="n" r="D4">
         <v>71.42857142857143</v>
       </c>
-      <c r="E4" t="n">
+      <c t="n" r="E4">
         <v>44.44444444444444</v>
       </c>
-      <c r="F4" t="n">
-        <v>100</v>
-      </c>
-      <c r="G4" t="n">
+      <c t="n" r="F4">
+        <v>100</v>
+      </c>
+      <c t="n" r="G4">
         <v>22.72727272727273</v>
       </c>
-      <c r="H4" t="n">
+      <c t="n" r="H4">
         <v>66.97247706422019</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
+    <row spans="1:8" r="5">
+      <c t="s" r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
+      <c t="n" r="B5">
+        <v>100</v>
+      </c>
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0</v>
+      </c>
+      <c t="n" r="F5">
+        <v>0</v>
+      </c>
+      <c t="n" r="G5">
+        <v>0</v>
+      </c>
+      <c t="n" r="H5">
+        <v>100</v>
+      </c>
+    </row>
+    <row spans="1:8" r="6">
+      <c t="s" r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" t="n">
+      <c t="n" r="B6">
+        <v>100</v>
+      </c>
+      <c t="n" r="C6">
         <v>22.72727272727273</v>
       </c>
-      <c r="D6" t="n">
+      <c t="n" r="D6">
         <v>66.66666666666666</v>
       </c>
-      <c r="E6" t="n">
+      <c t="n" r="E6">
         <v>36.36363636363637</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c t="n" r="F6">
+        <v>0</v>
+      </c>
+      <c t="n" r="G6">
         <v>11.76470588235294</v>
       </c>
-      <c r="H6" t="n">
+      <c t="n" r="H6">
         <v>66.01307189542483</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
+    <row spans="1:8" r="7">
+      <c t="s" r="A7" s="1">
         <v>16</v>
       </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" t="n">
+      <c t="n" r="B7">
+        <v>100</v>
+      </c>
+      <c t="n" r="C7">
         <v>50</v>
       </c>
-      <c r="D7" t="n">
+      <c t="n" r="D7">
         <v>77.77777777777779</v>
       </c>
-      <c r="E7" t="n">
-        <v>100</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c t="n" r="E7">
+        <v>100</v>
+      </c>
+      <c t="n" r="F7">
+        <v>0</v>
+      </c>
+      <c t="n" r="G7">
         <v>62.5</v>
       </c>
-      <c r="H7" t="n">
+      <c t="n" r="H7">
         <v>81.25</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
+    <row spans="1:8" r="8">
+      <c t="s" r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="B8" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>100</v>
-      </c>
-      <c r="E8" t="n">
-        <v>100</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c t="n" r="B8">
+        <v>100</v>
+      </c>
+      <c t="n" r="C8">
+        <v>0</v>
+      </c>
+      <c t="n" r="D8">
+        <v>100</v>
+      </c>
+      <c t="n" r="E8">
+        <v>100</v>
+      </c>
+      <c t="n" r="F8">
+        <v>0</v>
+      </c>
+      <c t="n" r="G8">
         <v>33.33333333333333</v>
       </c>
-      <c r="H8" t="n">
+      <c t="n" r="H8">
         <v>76.47058823529412</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
+    <row spans="1:8" r="9">
+      <c t="s" r="A9" s="1">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" t="n">
+      <c t="n" r="B9">
+        <v>100</v>
+      </c>
+      <c t="n" r="C9">
         <v>57.14285714285714</v>
       </c>
-      <c r="D9" t="n">
+      <c t="n" r="D9">
         <v>61.76470588235294</v>
       </c>
-      <c r="E9" t="n">
+      <c t="n" r="E9">
         <v>42.85714285714285</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c t="n" r="F9">
+        <v>0</v>
+      </c>
+      <c t="n" r="G9">
         <v>54.16666666666666</v>
       </c>
-      <c r="H9" t="n">
+      <c t="n" r="H9">
         <v>77.93103448275862</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
+    <row spans="1:8" r="10">
+      <c t="s" r="A10" s="1">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" t="n">
+      <c t="n" r="B10">
+        <v>100</v>
+      </c>
+      <c t="n" r="C10">
         <v>30.76923076923077</v>
       </c>
-      <c r="D10" t="n">
+      <c t="n" r="D10">
         <v>64.81481481481481</v>
       </c>
-      <c r="E10" t="n">
+      <c t="n" r="E10">
         <v>50</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c t="n" r="F10">
+        <v>0</v>
+      </c>
+      <c t="n" r="G10">
         <v>15.71428571428571</v>
       </c>
-      <c r="H10" t="n">
+      <c t="n" r="H10">
         <v>59.74358974358974</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
+    <row spans="1:8" r="11">
+      <c t="s" r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" t="n">
+      <c t="n" r="B11">
+        <v>100</v>
+      </c>
+      <c t="n" r="C11">
         <v>50</v>
       </c>
-      <c r="D11" t="n">
+      <c t="n" r="D11">
         <v>73.52941176470588</v>
       </c>
-      <c r="E11" t="n">
+      <c t="n" r="E11">
         <v>62.96296296296296</v>
       </c>
-      <c r="F11" t="n">
-        <v>100</v>
-      </c>
-      <c r="G11" t="n">
+      <c t="n" r="F11">
+        <v>100</v>
+      </c>
+      <c t="n" r="G11">
         <v>33.33333333333333</v>
       </c>
-      <c r="H11" t="n">
+      <c t="n" r="H11">
         <v>70.63492063492063</v>
       </c>
     </row>
@@ -1551,302 +1551,302 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+    <row spans="1:7" r="1">
+      <c t="s" r="A1" s="1">
+        <v>0</v>
+      </c>
+      <c t="s" r="B1" s="1">
+        <v>1</v>
+      </c>
+      <c t="s" r="C1" s="1">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c t="s" r="D1" s="1">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" r="E1" s="1">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c t="s" r="F1" s="1">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c t="s" r="G1" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" s="1" t="s">
+    <row spans="1:7" r="2">
+      <c t="s" r="A2" s="1">
         <v>11</v>
       </c>
-      <c r="B2" t="n">
-        <v>100</v>
-      </c>
-      <c r="C2" t="n">
+      <c t="n" r="B2">
+        <v>100</v>
+      </c>
+      <c t="n" r="C2">
         <v>9</v>
       </c>
-      <c r="D2" t="n">
+      <c t="n" r="D2">
         <v>63</v>
       </c>
-      <c r="E2" t="n">
+      <c t="n" r="E2">
         <v>25</v>
       </c>
-      <c r="F2" t="n">
-        <v>1</v>
-      </c>
-      <c r="G2" t="n">
+      <c t="n" r="F2">
+        <v>1</v>
+      </c>
+      <c t="n" r="G2">
         <v>7.000000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
-      <c r="A3" s="1" t="s">
+    <row spans="1:7" r="3">
+      <c t="s" r="A3" s="1">
         <v>12</v>
       </c>
-      <c r="B3" t="n">
-        <v>100</v>
-      </c>
-      <c r="C3" t="n">
+      <c t="n" r="B3">
+        <v>100</v>
+      </c>
+      <c t="n" r="C3">
         <v>7.000000000000001</v>
       </c>
-      <c r="D3" t="n">
+      <c t="n" r="D3">
         <v>34</v>
       </c>
-      <c r="E3" t="n">
+      <c t="n" r="E3">
         <v>27</v>
       </c>
-      <c r="F3" t="n">
+      <c t="n" r="F3">
         <v>3</v>
       </c>
-      <c r="G3" t="n">
+      <c t="n" r="G3">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="1" t="s">
+    <row spans="1:7" r="4">
+      <c t="s" r="A4" s="1">
         <v>13</v>
       </c>
-      <c r="B4" t="n">
-        <v>100</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-      <c r="D4" t="n">
+      <c t="n" r="B4">
+        <v>100</v>
+      </c>
+      <c t="n" r="C4">
+        <v>1</v>
+      </c>
+      <c t="n" r="D4">
         <v>15</v>
       </c>
-      <c r="E4" t="n">
+      <c t="n" r="E4">
         <v>4</v>
       </c>
-      <c r="F4" t="n">
-        <v>1</v>
-      </c>
-      <c r="G4" t="n">
+      <c t="n" r="F4">
+        <v>1</v>
+      </c>
+      <c t="n" r="G4">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="1" t="s">
+    <row spans="1:7" r="5">
+      <c t="s" r="A5" s="1">
         <v>14</v>
       </c>
-      <c r="B5" t="n">
-        <v>100</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="1" t="s">
+      <c t="n" r="B5">
+        <v>100</v>
+      </c>
+      <c t="n" r="C5">
+        <v>0</v>
+      </c>
+      <c t="n" r="D5">
+        <v>0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0</v>
+      </c>
+      <c t="n" r="F5">
+        <v>0</v>
+      </c>
+      <c t="n" r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row spans="1:7" r="6">
+      <c t="s" r="A6" s="1">
         <v>15</v>
       </c>
-      <c r="B6" t="n">
-        <v>100</v>
-      </c>
-      <c r="C6" t="n">
+      <c t="n" r="B6">
+        <v>100</v>
+      </c>
+      <c t="n" r="C6">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c t="n" r="D6">
         <v>24</v>
       </c>
-      <c r="E6" t="n">
+      <c t="n" r="E6">
         <v>4</v>
       </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
+      <c t="n" r="F6">
+        <v>0</v>
+      </c>
+      <c t="n" r="G6">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="1" t="s">
+    <row spans="1:7" r="7">
+      <c t="s" r="A7" s="1">
         <v>16</v>
       </c>
-      <c r="B7" t="n">
-        <v>100</v>
-      </c>
-      <c r="C7" t="n">
-        <v>1</v>
-      </c>
-      <c r="D7" t="n">
+      <c t="n" r="B7">
+        <v>100</v>
+      </c>
+      <c t="n" r="C7">
+        <v>1</v>
+      </c>
+      <c t="n" r="D7">
         <v>7.000000000000001</v>
       </c>
-      <c r="E7" t="n">
-        <v>1</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
+      <c t="n" r="E7">
+        <v>1</v>
+      </c>
+      <c t="n" r="F7">
+        <v>0</v>
+      </c>
+      <c t="n" r="G7">
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="1" t="s">
+    <row spans="1:7" r="8">
+      <c t="s" r="A8" s="1">
         <v>17</v>
       </c>
-      <c r="B8" t="n">
-        <v>100</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
+      <c t="n" r="B8">
+        <v>100</v>
+      </c>
+      <c t="n" r="C8">
+        <v>0</v>
+      </c>
+      <c t="n" r="D8">
         <v>5</v>
       </c>
-      <c r="E8" t="n">
+      <c t="n" r="E8">
         <v>2</v>
       </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
+      <c t="n" r="F8">
+        <v>0</v>
+      </c>
+      <c t="n" r="G8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" s="1" t="s">
+    <row spans="1:7" r="9">
+      <c t="s" r="A9" s="1">
         <v>18</v>
       </c>
-      <c r="B9" t="n">
-        <v>100</v>
-      </c>
-      <c r="C9" t="n">
+      <c t="n" r="B9">
+        <v>100</v>
+      </c>
+      <c t="n" r="C9">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c t="n" r="D9">
         <v>21</v>
       </c>
-      <c r="E9" t="n">
+      <c t="n" r="E9">
         <v>3</v>
       </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
+      <c t="n" r="F9">
+        <v>0</v>
+      </c>
+      <c t="n" r="G9">
         <v>13</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" s="1" t="s">
+    <row spans="1:7" r="10">
+      <c t="s" r="A10" s="1">
         <v>19</v>
       </c>
-      <c r="B10" t="n">
-        <v>100</v>
-      </c>
-      <c r="C10" t="n">
+      <c t="n" r="B10">
+        <v>100</v>
+      </c>
+      <c t="n" r="C10">
         <v>4</v>
       </c>
-      <c r="D10" t="n">
+      <c t="n" r="D10">
         <v>35</v>
       </c>
-      <c r="E10" t="n">
+      <c t="n" r="E10">
         <v>8</v>
       </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
+      <c t="n" r="F10">
+        <v>0</v>
+      </c>
+      <c t="n" r="G10">
         <v>22</v>
       </c>
     </row>
-    <row r="11" spans="1:7">
-      <c r="A11" s="1" t="s">
+    <row spans="1:7" r="11">
+      <c t="s" r="A11" s="1">
         <v>20</v>
       </c>
-      <c r="B11" t="n">
-        <v>100</v>
-      </c>
-      <c r="C11" t="n">
+      <c t="n" r="B11">
+        <v>100</v>
+      </c>
+      <c t="n" r="C11">
         <v>4</v>
       </c>
-      <c r="D11" t="n">
+      <c t="n" r="D11">
         <v>25</v>
       </c>
-      <c r="E11" t="n">
+      <c t="n" r="E11">
         <v>17</v>
       </c>
-      <c r="F11" t="n">
+      <c t="n" r="F11">
         <v>3</v>
       </c>
-      <c r="G11" t="n">
+      <c t="n" r="G11">
         <v>7.000000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:7">
-      <c r="A12" s="1" t="s">
+    <row spans="1:7" r="12">
+      <c t="s" r="A12" s="1">
         <v>7</v>
       </c>
-      <c r="B12" t="n">
-        <v>100</v>
-      </c>
-      <c r="C12" t="n">
+      <c t="n" r="B12">
+        <v>100</v>
+      </c>
+      <c t="n" r="C12">
         <v>35</v>
       </c>
-      <c r="D12" t="n">
+      <c t="n" r="D12">
         <v>229</v>
       </c>
-      <c r="E12" t="n">
+      <c t="n" r="E12">
         <v>91</v>
       </c>
-      <c r="F12" t="n">
+      <c t="n" r="F12">
         <v>8</v>
       </c>
-      <c r="G12" t="n">
+      <c t="n" r="G12">
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
+    <row spans="1:7" r="13">
+      <c t="s" r="A13" s="1">
         <v>8</v>
       </c>
-      <c r="B13" t="n">
-        <v>100</v>
-      </c>
-      <c r="C13" t="n">
+      <c t="n" r="B13">
+        <v>100</v>
+      </c>
+      <c t="n" r="C13">
         <v>27</v>
       </c>
-      <c r="D13" t="n">
+      <c t="n" r="D13">
         <v>193</v>
       </c>
-      <c r="E13" t="n">
+      <c t="n" r="E13">
         <v>71</v>
       </c>
-      <c r="F13" t="n">
+      <c t="n" r="F13">
         <v>6</v>
       </c>
-      <c r="G13" t="n">
+      <c t="n" r="G13">
         <v>62</v>
       </c>
     </row>
@@ -1869,319 +1869,319 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
+    <row spans="1:9" r="1">
+      <c t="s" r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c t="s" r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c t="s" r="D1" s="1">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c t="s" r="E1" s="1">
         <v>3</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c t="s" r="F1" s="1">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c t="s" r="G1" s="1">
         <v>5</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c t="s" r="H1" s="1">
         <v>6</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c t="s" r="I1" s="1">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+    <row spans="1:9" r="2">
+      <c t="n" r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c t="s" r="B2">
         <v>11</v>
       </c>
-      <c r="C2" t="n">
+      <c t="n" r="C2">
         <v>142</v>
       </c>
-      <c r="D2" t="n">
+      <c t="n" r="D2">
         <v>13</v>
       </c>
-      <c r="E2" t="n">
+      <c t="n" r="E2">
         <v>80</v>
       </c>
-      <c r="F2" t="n">
+      <c t="n" r="F2">
         <v>43</v>
       </c>
-      <c r="G2" t="n">
+      <c t="n" r="G2">
         <v>3</v>
       </c>
-      <c r="H2" t="n">
+      <c t="n" r="H2">
         <v>86</v>
       </c>
-      <c r="I2" t="n">
+      <c t="n" r="I2">
         <v>367</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+    <row spans="1:9" r="3">
+      <c t="n" r="A3" s="1">
+        <v>1</v>
+      </c>
+      <c t="s" r="B3">
         <v>12</v>
       </c>
-      <c r="C3" t="n">
+      <c t="n" r="C3">
         <v>46</v>
       </c>
-      <c r="D3" t="n">
+      <c t="n" r="D3">
         <v>17</v>
       </c>
-      <c r="E3" t="n">
+      <c t="n" r="E3">
         <v>53</v>
       </c>
-      <c r="F3" t="n">
+      <c t="n" r="F3">
         <v>50</v>
       </c>
-      <c r="G3" t="n">
+      <c t="n" r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="n">
+      <c t="n" r="H3">
         <v>39</v>
       </c>
-      <c r="I3" t="n">
+      <c t="n" r="I3">
         <v>208</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="1" t="n">
+    <row spans="1:9" r="4">
+      <c t="n" r="A4" s="1">
         <v>2</v>
       </c>
-      <c r="B4" t="s">
+      <c t="s" r="B4">
         <v>13</v>
       </c>
-      <c r="C4" t="n">
+      <c t="n" r="C4">
         <v>47</v>
       </c>
-      <c r="D4" t="n">
+      <c t="n" r="D4">
         <v>9</v>
       </c>
-      <c r="E4" t="n">
+      <c t="n" r="E4">
         <v>21</v>
       </c>
-      <c r="F4" t="n">
+      <c t="n" r="F4">
         <v>9</v>
       </c>
-      <c r="G4" t="n">
-        <v>1</v>
-      </c>
-      <c r="H4" t="n">
+      <c t="n" r="G4">
+        <v>1</v>
+      </c>
+      <c t="n" r="H4">
         <v>22</v>
       </c>
-      <c r="I4" t="n">
+      <c t="n" r="I4">
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="1" t="n">
+    <row spans="1:9" r="5">
+      <c t="n" r="A5" s="1">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
+      <c t="s" r="B5">
         <v>14</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="1" t="n">
+      <c t="n" r="C5">
+        <v>1</v>
+      </c>
+      <c t="n" r="D5">
+        <v>0</v>
+      </c>
+      <c t="n" r="E5">
+        <v>0</v>
+      </c>
+      <c t="n" r="F5">
+        <v>0</v>
+      </c>
+      <c t="n" r="G5">
+        <v>0</v>
+      </c>
+      <c t="n" r="H5">
+        <v>0</v>
+      </c>
+      <c t="n" r="I5">
+        <v>1</v>
+      </c>
+    </row>
+    <row spans="1:9" r="6">
+      <c t="n" r="A6" s="1">
         <v>4</v>
       </c>
-      <c r="B6" t="s">
+      <c t="s" r="B6">
         <v>15</v>
       </c>
-      <c r="C6" t="n">
+      <c t="n" r="C6">
         <v>66</v>
       </c>
-      <c r="D6" t="n">
+      <c t="n" r="D6">
         <v>22</v>
       </c>
-      <c r="E6" t="n">
+      <c t="n" r="E6">
         <v>36</v>
       </c>
-      <c r="F6" t="n">
+      <c t="n" r="F6">
         <v>11</v>
       </c>
-      <c r="G6" t="n">
-        <v>1</v>
-      </c>
-      <c r="H6" t="n">
+      <c t="n" r="G6">
+        <v>1</v>
+      </c>
+      <c t="n" r="H6">
         <v>17</v>
       </c>
-      <c r="I6" t="n">
+      <c t="n" r="I6">
         <v>153</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="1" t="n">
+    <row spans="1:9" r="7">
+      <c t="n" r="A7" s="1">
         <v>5</v>
       </c>
-      <c r="B7" t="s">
+      <c t="s" r="B7">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
+      <c t="n" r="C7">
         <v>12</v>
       </c>
-      <c r="D7" t="n">
+      <c t="n" r="D7">
         <v>2</v>
       </c>
-      <c r="E7" t="n">
+      <c t="n" r="E7">
         <v>9</v>
       </c>
-      <c r="F7" t="n">
-        <v>1</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
+      <c t="n" r="F7">
+        <v>1</v>
+      </c>
+      <c t="n" r="G7">
+        <v>0</v>
+      </c>
+      <c t="n" r="H7">
         <v>8</v>
       </c>
-      <c r="I7" t="n">
+      <c t="n" r="I7">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="1" t="n">
+    <row spans="1:9" r="8">
+      <c t="n" r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B8" t="s">
+      <c t="s" r="B8">
         <v>17</v>
       </c>
-      <c r="C8" t="n">
+      <c t="n" r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
+      <c t="n" r="D8">
+        <v>0</v>
+      </c>
+      <c t="n" r="E8">
         <v>5</v>
       </c>
-      <c r="F8" t="n">
+      <c t="n" r="F8">
         <v>2</v>
       </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
+      <c t="n" r="G8">
+        <v>0</v>
+      </c>
+      <c t="n" r="H8">
         <v>6</v>
       </c>
-      <c r="I8" t="n">
+      <c t="n" r="I8">
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="1" t="n">
+    <row spans="1:9" r="9">
+      <c t="n" r="A9" s="1">
         <v>7</v>
       </c>
-      <c r="B9" t="s">
+      <c t="s" r="B9">
         <v>18</v>
       </c>
-      <c r="C9" t="n">
+      <c t="n" r="C9">
         <v>72</v>
       </c>
-      <c r="D9" t="n">
+      <c t="n" r="D9">
         <v>7</v>
       </c>
-      <c r="E9" t="n">
+      <c t="n" r="E9">
         <v>34</v>
       </c>
-      <c r="F9" t="n">
+      <c t="n" r="F9">
         <v>7</v>
       </c>
-      <c r="G9" t="n">
-        <v>1</v>
-      </c>
-      <c r="H9" t="n">
+      <c t="n" r="G9">
+        <v>1</v>
+      </c>
+      <c t="n" r="H9">
         <v>24</v>
       </c>
-      <c r="I9" t="n">
+      <c t="n" r="I9">
         <v>145</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="1" t="n">
+    <row spans="1:9" r="10">
+      <c t="n" r="A10" s="1">
         <v>8</v>
       </c>
-      <c r="B10" t="s">
+      <c t="s" r="B10">
         <v>19</v>
       </c>
-      <c r="C10" t="n">
+      <c t="n" r="C10">
         <v>164</v>
       </c>
-      <c r="D10" t="n">
+      <c t="n" r="D10">
         <v>13</v>
       </c>
-      <c r="E10" t="n">
+      <c t="n" r="E10">
         <v>54</v>
       </c>
-      <c r="F10" t="n">
+      <c t="n" r="F10">
         <v>16</v>
       </c>
-      <c r="G10" t="n">
+      <c t="n" r="G10">
         <v>3</v>
       </c>
-      <c r="H10" t="n">
+      <c t="n" r="H10">
         <v>140</v>
       </c>
-      <c r="I10" t="n">
+      <c t="n" r="I10">
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
+    <row spans="1:9" r="11">
+      <c t="n" r="A11" s="1">
         <v>9</v>
       </c>
-      <c r="B11" t="s">
+      <c t="s" r="B11">
         <v>20</v>
       </c>
-      <c r="C11" t="n">
+      <c t="n" r="C11">
         <v>33</v>
       </c>
-      <c r="D11" t="n">
+      <c t="n" r="D11">
         <v>8</v>
       </c>
-      <c r="E11" t="n">
+      <c t="n" r="E11">
         <v>34</v>
       </c>
-      <c r="F11" t="n">
+      <c t="n" r="F11">
         <v>27</v>
       </c>
-      <c r="G11" t="n">
+      <c t="n" r="G11">
         <v>3</v>
       </c>
-      <c r="H11" t="n">
+      <c t="n" r="H11">
         <v>21</v>
       </c>
-      <c r="I11" t="n">
+      <c t="n" r="I11">
         <v>126</v>
       </c>
     </row>

--- a/tables/tech_innov_totals.xlsx
+++ b/tables/tech_innov_totals.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="20">
   <si>
     <t>RD</t>
   </si>
@@ -62,16 +62,13 @@
     <t>Biochar</t>
   </si>
   <si>
-    <t>Blue Carbon</t>
-  </si>
-  <si>
     <t>Direct Air Capture</t>
   </si>
   <si>
     <t>Enhanced Weathering</t>
   </si>
   <si>
-    <t>Geological Storage</t>
+    <t>NETs - General</t>
   </si>
   <si>
     <t>Ocean Alkalinisation</t>
@@ -81,9 +78,6 @@
   </si>
   <si>
     <t>Soil Carbon Sequestration</t>
-  </si>
-  <si>
-    <t>Synonyms</t>
   </si>
 </sst>
 </file>
@@ -441,7 +435,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -487,16 +481,16 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="C2">
         <v>9</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -505,16 +499,16 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>247</v>
+        <v>252</v>
       </c>
       <c r="I2">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="J2">
-        <v>260</v>
+        <v>277</v>
       </c>
       <c r="K2">
-        <v>475</v>
+        <v>486</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -522,34 +516,34 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="H3">
-        <v>127</v>
+        <v>151</v>
       </c>
       <c r="I3">
-        <v>78</v>
+        <v>106</v>
       </c>
       <c r="J3">
-        <v>115</v>
+        <v>150</v>
       </c>
       <c r="K3">
-        <v>216</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -557,7 +551,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -575,16 +569,16 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="I4">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="J4">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="K4">
-        <v>87</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -592,34 +586,34 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H5">
-        <v>1</v>
+        <v>144</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>108</v>
       </c>
       <c r="J5">
-        <v>9</v>
+        <v>153</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>252</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -627,34 +621,34 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H6">
-        <v>101</v>
+        <v>27</v>
       </c>
       <c r="I6">
-        <v>80</v>
+        <v>19</v>
       </c>
       <c r="J6">
-        <v>117</v>
+        <v>37</v>
       </c>
       <c r="K6">
-        <v>221</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -662,34 +656,34 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="H7">
-        <v>26</v>
+        <v>122</v>
       </c>
       <c r="I7">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="J7">
-        <v>31</v>
+        <v>101</v>
       </c>
       <c r="K7">
-        <v>33</v>
+        <v>262</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -697,34 +691,34 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H8">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="I8">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="J8">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="K8">
-        <v>133</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -732,34 +726,34 @@
         <v>18</v>
       </c>
       <c r="B9">
+        <v>94</v>
+      </c>
+      <c r="C9">
         <v>4</v>
       </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
       <c r="D9">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="H9">
-        <v>13</v>
+        <v>139</v>
       </c>
       <c r="I9">
-        <v>9</v>
+        <v>103</v>
       </c>
       <c r="J9">
-        <v>10</v>
+        <v>117</v>
       </c>
       <c r="K9">
-        <v>18</v>
+        <v>224</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -767,162 +761,92 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="C10">
         <v>4</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="H10">
-        <v>113</v>
+        <v>257</v>
       </c>
       <c r="I10">
-        <v>80</v>
+        <v>209</v>
       </c>
       <c r="J10">
-        <v>92</v>
+        <v>390</v>
       </c>
       <c r="K10">
-        <v>200</v>
+        <v>453</v>
       </c>
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>170</v>
+        <v>697</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>80</v>
       </c>
       <c r="H11">
-        <v>239</v>
+        <v>1181</v>
       </c>
       <c r="I11">
-        <v>195</v>
+        <v>885</v>
       </c>
       <c r="J11">
-        <v>369</v>
+        <v>1319</v>
       </c>
       <c r="K11">
-        <v>439</v>
+        <v>2085</v>
       </c>
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B12">
-        <v>33</v>
+        <v>679</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>7</v>
-      </c>
-      <c r="H12">
-        <v>89</v>
-      </c>
-      <c r="I12">
-        <v>51</v>
-      </c>
-      <c r="J12">
-        <v>69</v>
-      </c>
-      <c r="K12">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>596</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>230</v>
-      </c>
-      <c r="E13">
-        <v>92</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>72</v>
-      </c>
-      <c r="H13">
-        <v>1033</v>
-      </c>
-      <c r="I13">
-        <v>754</v>
-      </c>
-      <c r="J13">
-        <v>1144</v>
-      </c>
-      <c r="K13">
-        <v>2062</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>552</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>193</v>
-      </c>
-      <c r="E14">
-        <v>71</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -931,362 +855,6 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H14"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2">
-        <v>29.89473684210526</v>
-      </c>
-      <c r="C2">
-        <v>1.894736842105263</v>
-      </c>
-      <c r="D2">
-        <v>13.26315789473684</v>
-      </c>
-      <c r="E2">
-        <v>5.263157894736842</v>
-      </c>
-      <c r="F2">
-        <v>0.2105263157894737</v>
-      </c>
-      <c r="G2">
-        <v>1.473684210526316</v>
-      </c>
-      <c r="H2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="C3">
-        <v>3.24074074074074</v>
-      </c>
-      <c r="D3">
-        <v>15.74074074074074</v>
-      </c>
-      <c r="E3">
-        <v>12.5</v>
-      </c>
-      <c r="F3">
-        <v>1.388888888888889</v>
-      </c>
-      <c r="G3">
-        <v>3.703703703703703</v>
-      </c>
-      <c r="H3">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4">
-        <v>54.02298850574713</v>
-      </c>
-      <c r="C4">
-        <v>1.149425287356322</v>
-      </c>
-      <c r="D4">
-        <v>17.24137931034483</v>
-      </c>
-      <c r="E4">
-        <v>4.597701149425287</v>
-      </c>
-      <c r="F4">
-        <v>1.149425287356322</v>
-      </c>
-      <c r="G4">
-        <v>5.747126436781609</v>
-      </c>
-      <c r="H4">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B5">
-        <v>50</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
-      </c>
-      <c r="F5">
-        <v>0</v>
-      </c>
-      <c r="G5">
-        <v>0</v>
-      </c>
-      <c r="H5">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B6">
-        <v>29.86425339366516</v>
-      </c>
-      <c r="C6">
-        <v>2.262443438914027</v>
-      </c>
-      <c r="D6">
-        <v>10.85972850678733</v>
-      </c>
-      <c r="E6">
-        <v>1.809954751131222</v>
-      </c>
-      <c r="F6">
-        <v>0</v>
-      </c>
-      <c r="G6">
-        <v>0.904977375565611</v>
-      </c>
-      <c r="H6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B7">
-        <v>36.36363636363637</v>
-      </c>
-      <c r="C7">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="D7">
-        <v>21.21212121212121</v>
-      </c>
-      <c r="E7">
-        <v>3.03030303030303</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>15.15151515151515</v>
-      </c>
-      <c r="H7">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B8">
-        <v>0.7518796992481203</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8">
-        <v>0.7518796992481203</v>
-      </c>
-      <c r="E8">
-        <v>0.7518796992481203</v>
-      </c>
-      <c r="F8">
-        <v>0</v>
-      </c>
-      <c r="G8">
-        <v>0.7518796992481203</v>
-      </c>
-      <c r="H8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B9">
-        <v>22.22222222222222</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9">
-        <v>27.77777777777778</v>
-      </c>
-      <c r="E9">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="F9">
-        <v>0</v>
-      </c>
-      <c r="G9">
-        <v>11.11111111111111</v>
-      </c>
-      <c r="H9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10">
-        <v>36</v>
-      </c>
-      <c r="C10">
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <v>10.5</v>
-      </c>
-      <c r="E10">
-        <v>1.5</v>
-      </c>
-      <c r="F10">
-        <v>0</v>
-      </c>
-      <c r="G10">
-        <v>6.5</v>
-      </c>
-      <c r="H10">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11">
-        <v>38.72437357630979</v>
-      </c>
-      <c r="C11">
-        <v>0.9111617312072893</v>
-      </c>
-      <c r="D11">
-        <v>7.972665148063782</v>
-      </c>
-      <c r="E11">
-        <v>1.822323462414579</v>
-      </c>
-      <c r="F11">
-        <v>0</v>
-      </c>
-      <c r="G11">
-        <v>5.011389521640091</v>
-      </c>
-      <c r="H11">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>13.8655462184874</v>
-      </c>
-      <c r="C12">
-        <v>1.680672268907563</v>
-      </c>
-      <c r="D12">
-        <v>10.50420168067227</v>
-      </c>
-      <c r="E12">
-        <v>7.142857142857142</v>
-      </c>
-      <c r="F12">
-        <v>1.260504201680672</v>
-      </c>
-      <c r="G12">
-        <v>2.941176470588235</v>
-      </c>
-      <c r="H12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>28.90397672162949</v>
-      </c>
-      <c r="C13">
-        <v>1.697381183317168</v>
-      </c>
-      <c r="D13">
-        <v>11.15421920465567</v>
-      </c>
-      <c r="E13">
-        <v>4.461687681862269</v>
-      </c>
-      <c r="F13">
-        <v>0.387972841901067</v>
-      </c>
-      <c r="G13">
-        <v>3.491755577109602</v>
-      </c>
-      <c r="H13">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H12"/>
   <sheetViews>
@@ -1317,7 +885,7 @@
         <v>5</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1325,25 +893,25 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>100</v>
+        <v>30.65843621399177</v>
       </c>
       <c r="C2">
-        <v>69.23076923076923</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="D2">
-        <v>78.75</v>
+        <v>12.75720164609054</v>
       </c>
       <c r="E2">
-        <v>58.13953488372093</v>
+        <v>4.938271604938271</v>
       </c>
       <c r="F2">
-        <v>33.33333333333333</v>
+        <v>0.205761316872428</v>
       </c>
       <c r="G2">
-        <v>8.13953488372093</v>
+        <v>1.440329218106996</v>
       </c>
       <c r="H2">
-        <v>67.30245231607628</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1351,25 +919,25 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C3">
-        <v>41.17647058823529</v>
+        <v>2.868852459016393</v>
       </c>
       <c r="D3">
-        <v>62.96296296296296</v>
+        <v>15.16393442622951</v>
       </c>
       <c r="E3">
-        <v>51.92307692307693</v>
+        <v>12.70491803278689</v>
       </c>
       <c r="F3">
-        <v>100</v>
+        <v>2.049180327868852</v>
       </c>
       <c r="G3">
-        <v>19.51219512195122</v>
+        <v>4.098360655737705</v>
       </c>
       <c r="H3">
-        <v>59.06976744186046</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1377,25 +945,25 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>100</v>
+        <v>44.03669724770643</v>
       </c>
       <c r="C4">
-        <v>11.11111111111111</v>
+        <v>0.9174311926605505</v>
       </c>
       <c r="D4">
-        <v>71.42857142857143</v>
+        <v>13.76146788990826</v>
       </c>
       <c r="E4">
-        <v>44.44444444444444</v>
+        <v>3.669724770642202</v>
       </c>
       <c r="F4">
-        <v>100</v>
+        <v>0.9174311926605505</v>
       </c>
       <c r="G4">
-        <v>22.72727272727273</v>
+        <v>4.587155963302752</v>
       </c>
       <c r="H4">
-        <v>66.97247706422019</v>
+        <v>100</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1403,22 +971,22 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>100</v>
+        <v>36.50793650793651</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>2.777777777777778</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>11.9047619047619</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>3.174603174603174</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>0.7936507936507936</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>1.984126984126984</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -1429,25 +997,25 @@
         <v>15</v>
       </c>
       <c r="B6">
-        <v>100</v>
+        <v>37.14285714285715</v>
       </c>
       <c r="C6">
-        <v>22.72727272727273</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="D6">
-        <v>66.66666666666666</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>36.36363636363637</v>
+        <v>2.857142857142857</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>11.76470588235294</v>
+        <v>14.28571428571428</v>
       </c>
       <c r="H6">
-        <v>66.01307189542483</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1455,25 +1023,25 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>100</v>
+        <v>19.84732824427481</v>
       </c>
       <c r="C7">
-        <v>50</v>
+        <v>2.290076335877862</v>
       </c>
       <c r="D7">
-        <v>77.77777777777779</v>
+        <v>11.45038167938931</v>
       </c>
       <c r="E7">
-        <v>100</v>
+        <v>7.633587786259542</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>1.908396946564886</v>
       </c>
       <c r="G7">
-        <v>62.5</v>
+        <v>3.435114503816794</v>
       </c>
       <c r="H7">
-        <v>81.25</v>
+        <v>100</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1481,22 +1049,22 @@
         <v>17</v>
       </c>
       <c r="B8">
-        <v>100</v>
+        <v>25</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>100</v>
+        <v>30</v>
       </c>
       <c r="E8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>100</v>
+        <v>10</v>
       </c>
       <c r="H8">
         <v>100</v>
@@ -1507,25 +1075,25 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>100</v>
+        <v>41.96428571428572</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1.785714285714286</v>
       </c>
       <c r="D9">
-        <v>100</v>
+        <v>9.375</v>
       </c>
       <c r="E9">
-        <v>100</v>
+        <v>2.232142857142857</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>33.33333333333333</v>
+        <v>6.696428571428571</v>
       </c>
       <c r="H9">
-        <v>76.47058823529412</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1533,77 +1101,329 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>100</v>
+        <v>40.39735099337749</v>
       </c>
       <c r="C10">
-        <v>57.14285714285714</v>
+        <v>0.8830022075055187</v>
       </c>
       <c r="D10">
-        <v>61.76470588235294</v>
+        <v>8.167770419426049</v>
       </c>
       <c r="E10">
-        <v>42.85714285714285</v>
+        <v>2.428256070640177</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>54.16666666666666</v>
+        <v>4.856512141280353</v>
       </c>
       <c r="H10">
-        <v>77.93103448275862</v>
+        <v>100</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B11">
-        <v>100</v>
+        <v>33.42925659472422</v>
       </c>
       <c r="C11">
-        <v>30.76923076923077</v>
+        <v>1.870503597122302</v>
       </c>
       <c r="D11">
-        <v>63.63636363636363</v>
+        <v>11.75059952038369</v>
       </c>
       <c r="E11">
-        <v>50</v>
+        <v>5.083932853717026</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>0.671462829736211</v>
       </c>
       <c r="G11">
-        <v>15.38461538461539</v>
+        <v>3.836930455635491</v>
       </c>
       <c r="H11">
-        <v>59.75</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-      <c r="C12">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>69.23076923076923</v>
+      </c>
+      <c r="D2">
+        <v>78.48101265822784</v>
+      </c>
+      <c r="E2">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="F2">
+        <v>33.33333333333333</v>
+      </c>
+      <c r="G2">
+        <v>8.235294117647058</v>
+      </c>
+      <c r="H2">
+        <v>67.9245283018868</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3">
+        <v>41.17647058823529</v>
+      </c>
+      <c r="D3">
+        <v>64.91228070175438</v>
+      </c>
+      <c r="E3">
+        <v>55.35714285714286</v>
+      </c>
+      <c r="F3">
+        <v>100</v>
+      </c>
+      <c r="G3">
+        <v>23.80952380952381</v>
+      </c>
+      <c r="H3">
+        <v>63.4453781512605</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4">
+        <v>100</v>
+      </c>
+      <c r="C4">
+        <v>11.11111111111111</v>
+      </c>
+      <c r="D4">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="E4">
+        <v>44.44444444444444</v>
+      </c>
+      <c r="F4">
+        <v>100</v>
+      </c>
+      <c r="G4">
+        <v>22.72727272727273</v>
+      </c>
+      <c r="H4">
+        <v>67.27272727272727</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5">
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <v>29.16666666666667</v>
+      </c>
+      <c r="D5">
+        <v>71.42857142857143</v>
+      </c>
+      <c r="E5">
+        <v>53.33333333333334</v>
+      </c>
+      <c r="F5">
+        <v>66.66666666666666</v>
+      </c>
+      <c r="G5">
+        <v>25</v>
+      </c>
+      <c r="H5">
+        <v>73.46938775510205</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6">
         <v>50</v>
       </c>
-      <c r="D12">
-        <v>73.52941176470588</v>
-      </c>
-      <c r="E12">
-        <v>62.96296296296296</v>
-      </c>
-      <c r="F12">
-        <v>100</v>
-      </c>
-      <c r="G12">
+      <c r="D6">
+        <v>77.77777777777779</v>
+      </c>
+      <c r="E6">
+        <v>100</v>
+      </c>
+      <c r="F6">
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <v>62.5</v>
+      </c>
+      <c r="H6">
+        <v>81.81818181818183</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7">
+        <v>100</v>
+      </c>
+      <c r="C7">
+        <v>60</v>
+      </c>
+      <c r="D7">
+        <v>76.92307692307693</v>
+      </c>
+      <c r="E7">
+        <v>68.96551724137932</v>
+      </c>
+      <c r="F7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>39.1304347826087</v>
+      </c>
+      <c r="H7">
+        <v>77.21518987341773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>100</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="F8">
+        <v>0</v>
+      </c>
+      <c r="G8">
         <v>33.33333333333333</v>
       </c>
-      <c r="H12">
-        <v>70.63492063492063</v>
+      <c r="H8">
+        <v>78.94736842105263</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+      <c r="C9">
+        <v>57.14285714285714</v>
+      </c>
+      <c r="D9">
+        <v>61.76470588235294</v>
+      </c>
+      <c r="E9">
+        <v>55.55555555555556</v>
+      </c>
+      <c r="F9">
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <v>57.69230769230769</v>
+      </c>
+      <c r="H9">
+        <v>81.28654970760235</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10">
+        <v>100</v>
+      </c>
+      <c r="C10">
+        <v>30.76923076923077</v>
+      </c>
+      <c r="D10">
+        <v>64.91228070175438</v>
+      </c>
+      <c r="E10">
+        <v>57.89473684210527</v>
+      </c>
+      <c r="F10">
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <v>15.38461538461539</v>
+      </c>
+      <c r="H10">
+        <v>61.48325358851675</v>
       </c>
     </row>
   </sheetData>
@@ -1613,7 +1433,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1653,10 +1473,10 @@
         <v>9</v>
       </c>
       <c r="D2">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E2">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -1676,16 +1496,16 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D3">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="F3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G3">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1719,19 +1539,19 @@
         <v>100</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1742,19 +1562,19 @@
         <v>100</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>24</v>
+        <v>7.000000000000001</v>
       </c>
       <c r="E6">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1765,19 +1585,19 @@
         <v>100</v>
       </c>
       <c r="C7">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D7">
-        <v>7.000000000000001</v>
+        <v>30</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G7">
-        <v>5</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1791,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1811,19 +1631,19 @@
         <v>100</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1837,108 +1657,62 @@
         <v>4</v>
       </c>
       <c r="D10">
-        <v>21</v>
+        <v>37</v>
       </c>
       <c r="E10">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>13</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="B11">
         <v>100</v>
       </c>
       <c r="C11">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="D11">
-        <v>35</v>
+        <v>245</v>
       </c>
       <c r="E11">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="F11">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G11">
-        <v>22</v>
+        <v>80</v>
       </c>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B12">
         <v>100</v>
       </c>
       <c r="C12">
-        <v>4</v>
+        <v>29</v>
       </c>
       <c r="D12">
-        <v>25</v>
+        <v>208</v>
       </c>
       <c r="E12">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="F12">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G12">
-        <v>7.000000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B13">
-        <v>100</v>
-      </c>
-      <c r="C13">
-        <v>35</v>
-      </c>
-      <c r="D13">
-        <v>230</v>
-      </c>
-      <c r="E13">
-        <v>92</v>
-      </c>
-      <c r="F13">
-        <v>8</v>
-      </c>
-      <c r="G13">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B14">
-        <v>100</v>
-      </c>
-      <c r="C14">
-        <v>27</v>
-      </c>
-      <c r="D14">
-        <v>193</v>
-      </c>
-      <c r="E14">
-        <v>71</v>
-      </c>
-      <c r="F14">
-        <v>6</v>
-      </c>
-      <c r="G14">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
   </sheetData>
@@ -1948,7 +1722,7 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I10"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1988,25 +1762,25 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="D2">
         <v>13</v>
       </c>
       <c r="E2">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F2">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G2">
         <v>3</v>
       </c>
       <c r="H2">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="I2">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -2017,25 +1791,25 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="F3">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="G3">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="H3">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="I3">
-        <v>215</v>
+        <v>238</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -2046,7 +1820,7 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D4">
         <v>9</v>
@@ -2064,7 +1838,7 @@
         <v>22</v>
       </c>
       <c r="I4">
-        <v>109</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -2075,25 +1849,25 @@
         <v>14</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>42</v>
       </c>
       <c r="F5">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>196</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -2104,25 +1878,25 @@
         <v>15</v>
       </c>
       <c r="C6">
-        <v>66</v>
+        <v>13</v>
       </c>
       <c r="D6">
-        <v>22</v>
+        <v>2</v>
       </c>
       <c r="E6">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F6">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6">
-        <v>17</v>
+        <v>8</v>
       </c>
       <c r="I6">
-        <v>153</v>
+        <v>33</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -2133,25 +1907,25 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>12</v>
+        <v>52</v>
       </c>
       <c r="D7">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="E7">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="F7">
-        <v>1</v>
+        <v>29</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H7">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="I7">
-        <v>32</v>
+        <v>158</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -2162,25 +1936,25 @@
         <v>17</v>
       </c>
       <c r="C8">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I8">
-        <v>4</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -2191,25 +1965,25 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>4</v>
+        <v>94</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="E9">
-        <v>5</v>
+        <v>34</v>
       </c>
       <c r="F9">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H9">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="I9">
-        <v>17</v>
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2220,83 +1994,25 @@
         <v>19</v>
       </c>
       <c r="C10">
-        <v>72</v>
+        <v>183</v>
       </c>
       <c r="D10">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="E10">
-        <v>34</v>
+        <v>57</v>
       </c>
       <c r="F10">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="G10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="H10">
-        <v>24</v>
+        <v>143</v>
       </c>
       <c r="I10">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>170</v>
-      </c>
-      <c r="D11">
-        <v>13</v>
-      </c>
-      <c r="E11">
-        <v>55</v>
-      </c>
-      <c r="F11">
-        <v>16</v>
-      </c>
-      <c r="G11">
-        <v>3</v>
-      </c>
-      <c r="H11">
-        <v>143</v>
-      </c>
-      <c r="I11">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>8</v>
-      </c>
-      <c r="E12">
-        <v>34</v>
-      </c>
-      <c r="F12">
-        <v>27</v>
-      </c>
-      <c r="G12">
-        <v>3</v>
-      </c>
-      <c r="H12">
-        <v>21</v>
-      </c>
-      <c r="I12">
-        <v>126</v>
+        <v>418</v>
       </c>
     </row>
   </sheetData>

--- a/tables/tech_innov_totals.xlsx
+++ b/tables/tech_innov_totals.xlsx
@@ -62,7 +62,7 @@
     <t>Biochar</t>
   </si>
   <si>
-    <t>Direct Air Capture</t>
+    <t>DACCS</t>
   </si>
   <si>
     <t>Enhanced Weathering</t>
@@ -481,7 +481,7 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C2">
         <v>9</v>
@@ -499,16 +499,16 @@
         <v>7</v>
       </c>
       <c r="H2">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="I2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="J2">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="K2">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -516,13 +516,13 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C3">
         <v>7</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>31</v>
@@ -534,16 +534,16 @@
         <v>10</v>
       </c>
       <c r="H3">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="I3">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="J3">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="K3">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -551,7 +551,7 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C4">
         <v>1</v>
@@ -569,16 +569,16 @@
         <v>5</v>
       </c>
       <c r="H4">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="I4">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="J4">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="K4">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -592,7 +592,7 @@
         <v>7</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -604,16 +604,16 @@
         <v>5</v>
       </c>
       <c r="H5">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="I5">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="J5">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="K5">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -645,7 +645,7 @@
         <v>19</v>
       </c>
       <c r="J6">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="K6">
         <v>35</v>
@@ -656,16 +656,16 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -674,16 +674,16 @@
         <v>9</v>
       </c>
       <c r="H7">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I7">
         <v>75</v>
       </c>
       <c r="J7">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="K7">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -726,13 +726,13 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C9">
         <v>4</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -741,19 +741,19 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H9">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="I9">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="J9">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="K9">
-        <v>224</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -785,10 +785,10 @@
         <v>209</v>
       </c>
       <c r="J10">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="K10">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -796,34 +796,34 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C11">
         <v>39</v>
       </c>
       <c r="D11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F11">
         <v>14</v>
       </c>
       <c r="G11">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="H11">
-        <v>1181</v>
+        <v>1178</v>
       </c>
       <c r="I11">
-        <v>885</v>
+        <v>881</v>
       </c>
       <c r="J11">
-        <v>1319</v>
+        <v>1316</v>
       </c>
       <c r="K11">
-        <v>2085</v>
+        <v>2066</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -831,13 +831,13 @@
         <v>7</v>
       </c>
       <c r="B12">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C12">
         <v>29</v>
       </c>
       <c r="D12">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12">
         <v>99</v>
@@ -893,22 +893,22 @@
         <v>11</v>
       </c>
       <c r="B2">
-        <v>30.65843621399177</v>
+        <v>30.51546391752577</v>
       </c>
       <c r="C2">
-        <v>1.851851851851852</v>
+        <v>1.855670103092784</v>
       </c>
       <c r="D2">
-        <v>12.75720164609054</v>
+        <v>12.78350515463917</v>
       </c>
       <c r="E2">
-        <v>4.938271604938271</v>
+        <v>4.948453608247423</v>
       </c>
       <c r="F2">
-        <v>0.205761316872428</v>
+        <v>0.2061855670103093</v>
       </c>
       <c r="G2">
-        <v>1.440329218106996</v>
+        <v>1.443298969072165</v>
       </c>
       <c r="H2">
         <v>100</v>
@@ -919,22 +919,22 @@
         <v>12</v>
       </c>
       <c r="B3">
-        <v>25</v>
+        <v>24.79338842975207</v>
       </c>
       <c r="C3">
-        <v>2.868852459016393</v>
+        <v>2.892561983471075</v>
       </c>
       <c r="D3">
-        <v>15.16393442622951</v>
+        <v>14.87603305785124</v>
       </c>
       <c r="E3">
-        <v>12.70491803278689</v>
+        <v>12.8099173553719</v>
       </c>
       <c r="F3">
-        <v>2.049180327868852</v>
+        <v>2.066115702479339</v>
       </c>
       <c r="G3">
-        <v>4.098360655737705</v>
+        <v>4.132231404958678</v>
       </c>
       <c r="H3">
         <v>100</v>
@@ -945,22 +945,22 @@
         <v>13</v>
       </c>
       <c r="B4">
-        <v>44.03669724770643</v>
+        <v>48.14814814814815</v>
       </c>
       <c r="C4">
-        <v>0.9174311926605505</v>
+        <v>0.9259259259259258</v>
       </c>
       <c r="D4">
-        <v>13.76146788990826</v>
+        <v>13.88888888888889</v>
       </c>
       <c r="E4">
-        <v>3.669724770642202</v>
+        <v>3.703703703703703</v>
       </c>
       <c r="F4">
-        <v>0.9174311926605505</v>
+        <v>0.9259259259259258</v>
       </c>
       <c r="G4">
-        <v>4.587155963302752</v>
+        <v>4.62962962962963</v>
       </c>
       <c r="H4">
         <v>100</v>
@@ -971,22 +971,22 @@
         <v>14</v>
       </c>
       <c r="B5">
-        <v>36.50793650793651</v>
+        <v>36.8</v>
       </c>
       <c r="C5">
-        <v>2.777777777777778</v>
+        <v>2.8</v>
       </c>
       <c r="D5">
-        <v>11.9047619047619</v>
+        <v>11.6</v>
       </c>
       <c r="E5">
-        <v>3.174603174603174</v>
+        <v>3.2</v>
       </c>
       <c r="F5">
-        <v>0.7936507936507936</v>
+        <v>0.8</v>
       </c>
       <c r="G5">
-        <v>1.984126984126984</v>
+        <v>2</v>
       </c>
       <c r="H5">
         <v>100</v>
@@ -1023,22 +1023,22 @@
         <v>16</v>
       </c>
       <c r="B7">
-        <v>19.84732824427481</v>
+        <v>20.54263565891473</v>
       </c>
       <c r="C7">
-        <v>2.290076335877862</v>
+        <v>2.325581395348837</v>
       </c>
       <c r="D7">
-        <v>11.45038167938931</v>
+        <v>11.24031007751938</v>
       </c>
       <c r="E7">
-        <v>7.633587786259542</v>
+        <v>8.13953488372093</v>
       </c>
       <c r="F7">
-        <v>1.908396946564886</v>
+        <v>1.937984496124031</v>
       </c>
       <c r="G7">
-        <v>3.435114503816794</v>
+        <v>3.488372093023256</v>
       </c>
       <c r="H7">
         <v>100</v>
@@ -1075,22 +1075,22 @@
         <v>18</v>
       </c>
       <c r="B9">
-        <v>41.96428571428572</v>
+        <v>41.66666666666667</v>
       </c>
       <c r="C9">
-        <v>1.785714285714286</v>
+        <v>1.851851851851852</v>
       </c>
       <c r="D9">
-        <v>9.375</v>
+        <v>10.18518518518519</v>
       </c>
       <c r="E9">
-        <v>2.232142857142857</v>
+        <v>2.314814814814815</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>6.696428571428571</v>
+        <v>6.481481481481481</v>
       </c>
       <c r="H9">
         <v>100</v>
@@ -1101,22 +1101,22 @@
         <v>19</v>
       </c>
       <c r="B10">
-        <v>40.39735099337749</v>
+        <v>40.48672566371682</v>
       </c>
       <c r="C10">
-        <v>0.8830022075055187</v>
+        <v>0.8849557522123894</v>
       </c>
       <c r="D10">
-        <v>8.167770419426049</v>
+        <v>8.185840707964601</v>
       </c>
       <c r="E10">
-        <v>2.428256070640177</v>
+        <v>2.433628318584071</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>4.856512141280353</v>
+        <v>4.867256637168142</v>
       </c>
       <c r="H10">
         <v>100</v>
@@ -1127,22 +1127,22 @@
         <v>6</v>
       </c>
       <c r="B11">
-        <v>33.42925659472422</v>
+        <v>33.68828654404646</v>
       </c>
       <c r="C11">
-        <v>1.870503597122302</v>
+        <v>1.887705711519845</v>
       </c>
       <c r="D11">
-        <v>11.75059952038369</v>
+        <v>11.76185866408519</v>
       </c>
       <c r="E11">
-        <v>5.083932853717026</v>
+        <v>5.179090029041626</v>
       </c>
       <c r="F11">
-        <v>0.671462829736211</v>
+        <v>0.6776379477250726</v>
       </c>
       <c r="G11">
-        <v>3.836930455635491</v>
+        <v>3.823814133591481</v>
       </c>
       <c r="H11">
         <v>100</v>
@@ -1215,7 +1215,7 @@
         <v>8.235294117647058</v>
       </c>
       <c r="H2">
-        <v>67.9245283018868</v>
+        <v>67.83783783783784</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1229,7 +1229,7 @@
         <v>41.17647058823529</v>
       </c>
       <c r="D3">
-        <v>64.91228070175438</v>
+        <v>64.28571428571429</v>
       </c>
       <c r="E3">
         <v>55.35714285714286</v>
@@ -1238,10 +1238,10 @@
         <v>100</v>
       </c>
       <c r="G3">
-        <v>23.80952380952381</v>
+        <v>23.25581395348837</v>
       </c>
       <c r="H3">
-        <v>63.4453781512605</v>
+        <v>62.86919831223629</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1255,19 +1255,19 @@
         <v>11.11111111111111</v>
       </c>
       <c r="D4">
-        <v>71.42857142857143</v>
+        <v>65.21739130434783</v>
       </c>
       <c r="E4">
-        <v>44.44444444444444</v>
+        <v>40</v>
       </c>
       <c r="F4">
         <v>100</v>
       </c>
       <c r="G4">
-        <v>22.72727272727273</v>
+        <v>20</v>
       </c>
       <c r="H4">
-        <v>67.27272727272727</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1281,7 +1281,7 @@
         <v>29.16666666666667</v>
       </c>
       <c r="D5">
-        <v>71.42857142857143</v>
+        <v>70.73170731707317</v>
       </c>
       <c r="E5">
         <v>53.33333333333334</v>
@@ -1293,7 +1293,7 @@
         <v>25</v>
       </c>
       <c r="H5">
-        <v>73.46938775510205</v>
+        <v>73.33333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1333,10 +1333,10 @@
         <v>60</v>
       </c>
       <c r="D7">
-        <v>76.92307692307693</v>
+        <v>76.31578947368422</v>
       </c>
       <c r="E7">
-        <v>68.96551724137932</v>
+        <v>67.74193548387096</v>
       </c>
       <c r="F7">
         <v>100</v>
@@ -1345,7 +1345,7 @@
         <v>39.1304347826087</v>
       </c>
       <c r="H7">
-        <v>77.21518987341773</v>
+        <v>76.875</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1385,19 +1385,19 @@
         <v>57.14285714285714</v>
       </c>
       <c r="D9">
-        <v>61.76470588235294</v>
+        <v>61.11111111111111</v>
       </c>
       <c r="E9">
-        <v>55.55555555555556</v>
+        <v>50</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>57.69230769230769</v>
+        <v>56.00000000000001</v>
       </c>
       <c r="H9">
-        <v>81.28654970760235</v>
+        <v>79.88165680473372</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>15.38461538461539</v>
+        <v>15.27777777777778</v>
       </c>
       <c r="H10">
-        <v>61.48325358851675</v>
+        <v>61.33651551312649</v>
       </c>
     </row>
   </sheetData>
@@ -1496,7 +1496,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D3">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E3">
         <v>31</v>
@@ -1542,7 +1542,7 @@
         <v>7.000000000000001</v>
       </c>
       <c r="D5">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E5">
         <v>8</v>
@@ -1588,10 +1588,10 @@
         <v>6</v>
       </c>
       <c r="D7">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E7">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -1634,7 +1634,7 @@
         <v>4</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E9">
         <v>5</v>
@@ -1643,7 +1643,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1680,16 +1680,16 @@
         <v>39</v>
       </c>
       <c r="D11">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E11">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F11">
         <v>14</v>
       </c>
       <c r="G11">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1703,7 +1703,7 @@
         <v>29</v>
       </c>
       <c r="D12">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E12">
         <v>99</v>
@@ -1762,7 +1762,7 @@
         <v>11</v>
       </c>
       <c r="C2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D2">
         <v>13</v>
@@ -1780,7 +1780,7 @@
         <v>85</v>
       </c>
       <c r="I2">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -1791,13 +1791,13 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>17</v>
       </c>
       <c r="E3">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F3">
         <v>56</v>
@@ -1806,10 +1806,10 @@
         <v>5</v>
       </c>
       <c r="H3">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="I3">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -1820,25 +1820,25 @@
         <v>13</v>
       </c>
       <c r="C4">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D4">
         <v>9</v>
       </c>
       <c r="E4">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F4">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="H4">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="I4">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -1855,7 +1855,7 @@
         <v>24</v>
       </c>
       <c r="E5">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F5">
         <v>15</v>
@@ -1867,7 +1867,7 @@
         <v>20</v>
       </c>
       <c r="I5">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -1907,16 +1907,16 @@
         <v>16</v>
       </c>
       <c r="C7">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D7">
         <v>10</v>
       </c>
       <c r="E7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F7">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="G7">
         <v>5</v>
@@ -1925,7 +1925,7 @@
         <v>23</v>
       </c>
       <c r="I7">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -1965,25 +1965,25 @@
         <v>18</v>
       </c>
       <c r="C9">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="D9">
         <v>7</v>
       </c>
       <c r="E9">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F9">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="H9">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I9">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -2009,10 +2009,10 @@
         <v>3</v>
       </c>
       <c r="H10">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="I10">
-        <v>418</v>
+        <v>419</v>
       </c>
     </row>
   </sheetData>
